--- a/HeadersTemplate.xlsx
+++ b/HeadersTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kksta\CapstoneC2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chavezmunoz.a/Documents/Classes/CapstoneC2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15F62D6-373B-4A9F-AC19-295FEAA51760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07DD377-DC71-0448-AC73-88B8D6A1EECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E9678E3D-6B13-0047-9198-B64F92A85DB1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{E9678E3D-6B13-0047-9198-B64F92A85DB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="1" r:id="rId1"/>
@@ -187,9 +187,6 @@
     <t>Past hx of cancer</t>
   </si>
   <si>
-    <t>Hx of  DVT</t>
-  </si>
-  <si>
     <t>Hx of stroke</t>
   </si>
   <si>
@@ -296,6 +293,9 @@
   </si>
   <si>
     <t>Thrombotic event not related to the area intervened</t>
+  </si>
+  <si>
+    <t>Hx of DVT</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -731,7 +731,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -741,25 +741,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277E53FF-9C48-0E42-92C4-C58471F33D22}">
   <dimension ref="A1:AD776"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.19921875" customWidth="1"/>
-    <col min="3" max="3" width="6.59765625" customWidth="1"/>
-    <col min="6" max="6" width="31.3984375" customWidth="1"/>
-    <col min="8" max="8" width="23.796875" customWidth="1"/>
-    <col min="10" max="10" width="12.796875" customWidth="1"/>
-    <col min="11" max="11" width="14.59765625" customWidth="1"/>
-    <col min="17" max="17" width="13.69921875" customWidth="1"/>
-    <col min="22" max="22" width="15.8984375" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
+    <col min="22" max="22" width="15.83203125" customWidth="1"/>
     <col min="24" max="24" width="15" customWidth="1"/>
-    <col min="29" max="29" width="13.09765625" customWidth="1"/>
+    <col min="29" max="29" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="12" customFormat="1" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="12" customFormat="1" ht="64.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -782,7 +782,7 @@
         <v>38</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>39</v>
@@ -815,43 +815,43 @@
         <v>48</v>
       </c>
       <c r="S1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="T1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AD1" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23">
         <v>39</v>
       </c>
@@ -859,22 +859,22 @@
         <v>81</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="23">
         <v>1</v>
       </c>
       <c r="E2" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>69</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>70</v>
       </c>
       <c r="G2" s="23">
         <v>40.373643141678478</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I2" s="23">
         <v>1</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="M2" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="23" t="s">
         <v>72</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>73</v>
       </c>
       <c r="O2" s="23">
         <v>0</v>
@@ -901,28 +901,28 @@
         <v>2</v>
       </c>
       <c r="Q2" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="T2" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="S2" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="T2" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="U2" s="23" t="s">
-        <v>73</v>
-      </c>
       <c r="V2" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W2" s="23">
         <v>22.033539937572471</v>
       </c>
       <c r="X2" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y2" s="23">
         <v>0</v>
@@ -937,13 +937,13 @@
         <v>0.1045217948752121</v>
       </c>
       <c r="AC2" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD2" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="AD2" s="23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
@@ -975,2177 +975,2177 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E13" s="20"/>
       <c r="F13" s="19"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E14" s="21"/>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E24" s="13"/>
       <c r="F24" s="19"/>
     </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E25" s="20"/>
       <c r="F25" s="19"/>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
     </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E32" s="20"/>
       <c r="F32" s="19"/>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E33" s="20"/>
       <c r="F33" s="19"/>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
     </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
     </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
     </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E51" s="19"/>
       <c r="F51" s="19"/>
     </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
     </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E54" s="20"/>
       <c r="F54" s="19"/>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
     </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E56" s="19"/>
       <c r="F56" s="19"/>
     </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
     </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E58" s="19"/>
       <c r="F58" s="19"/>
     </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
     </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
     </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E61" s="19"/>
       <c r="F61" s="19"/>
     </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
     </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
     </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E64" s="19"/>
       <c r="F64" s="19"/>
     </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
     </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
     </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E67" s="19"/>
       <c r="F67" s="19"/>
     </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
     </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
     </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E70" s="19"/>
       <c r="F70" s="19"/>
     </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
     </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E72" s="19"/>
       <c r="F72" s="19"/>
     </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
     </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
     </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E75" s="19"/>
       <c r="F75" s="19"/>
     </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E76" s="19"/>
       <c r="F76" s="19"/>
     </row>
-    <row r="77" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E77" s="19"/>
       <c r="F77" s="19"/>
     </row>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E78" s="19"/>
       <c r="F78" s="19"/>
     </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
     </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E81" s="19"/>
       <c r="F81" s="19"/>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E82" s="19"/>
       <c r="F82" s="19"/>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E84" s="19"/>
       <c r="F84" s="19"/>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E85" s="19"/>
       <c r="F85" s="19"/>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E88" s="20"/>
       <c r="F88" s="19"/>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E89" s="19"/>
       <c r="F89" s="19"/>
     </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E90" s="19"/>
       <c r="F90" s="19"/>
     </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E91" s="19"/>
       <c r="F91" s="19"/>
     </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:6" x14ac:dyDescent="0.2">
       <c r="F92" s="19"/>
     </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E93" s="19"/>
       <c r="F93" s="19"/>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E94" s="19"/>
       <c r="F94" s="19"/>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E95" s="19"/>
       <c r="F95" s="19"/>
     </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E96" s="19"/>
       <c r="F96" s="19"/>
     </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E97" s="19"/>
       <c r="F97" s="19"/>
     </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E98" s="19"/>
       <c r="F98" s="19"/>
     </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E99" s="19"/>
       <c r="F99" s="19"/>
     </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E100" s="20"/>
       <c r="F100" s="19"/>
     </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E101" s="19"/>
       <c r="F101" s="19"/>
     </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:6" x14ac:dyDescent="0.2">
       <c r="F102" s="19"/>
     </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E103" s="19"/>
       <c r="F103" s="19"/>
     </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E104" s="19"/>
       <c r="F104" s="19"/>
     </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E105" s="19"/>
       <c r="F105" s="19"/>
     </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E106" s="19"/>
       <c r="F106" s="19"/>
     </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E107" s="19"/>
       <c r="F107" s="19"/>
     </row>
-    <row r="108" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E108" s="19"/>
       <c r="F108" s="19"/>
     </row>
-    <row r="109" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E109" s="19"/>
       <c r="F109" s="19"/>
     </row>
-    <row r="110" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E110" s="19"/>
       <c r="F110" s="19"/>
     </row>
-    <row r="111" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E111" s="20"/>
       <c r="F111" s="19"/>
     </row>
-    <row r="112" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E112" s="20"/>
       <c r="F112" s="19"/>
     </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E113" s="19"/>
       <c r="F113" s="19"/>
     </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E114" s="19"/>
       <c r="F114" s="19"/>
     </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E115" s="19"/>
       <c r="F115" s="19"/>
     </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E116" s="19"/>
       <c r="F116" s="19"/>
     </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E117" s="19"/>
       <c r="F117" s="19"/>
     </row>
-    <row r="118" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
     </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
     </row>
-    <row r="120" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
     </row>
-    <row r="121" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
     </row>
-    <row r="122" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
     </row>
-    <row r="123" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
     </row>
-    <row r="124" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
     </row>
-    <row r="125" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
     </row>
-    <row r="126" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
     </row>
-    <row r="127" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
     </row>
-    <row r="128" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
     </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
     </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
     </row>
-    <row r="131" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
     </row>
-    <row r="132" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
     </row>
-    <row r="133" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
     </row>
-    <row r="134" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
     </row>
-    <row r="135" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
     </row>
-    <row r="136" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
     </row>
-    <row r="137" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
     </row>
-    <row r="138" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
     </row>
-    <row r="139" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
     </row>
-    <row r="140" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
     </row>
-    <row r="141" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
     </row>
-    <row r="142" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
     </row>
-    <row r="143" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
     </row>
-    <row r="144" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
     </row>
-    <row r="145" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
     </row>
-    <row r="146" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
     </row>
-    <row r="147" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
     </row>
-    <row r="148" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
     </row>
-    <row r="149" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
     </row>
-    <row r="150" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
     </row>
-    <row r="151" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
     </row>
-    <row r="152" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
     </row>
-    <row r="153" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
     </row>
-    <row r="154" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
     </row>
-    <row r="155" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
     </row>
-    <row r="156" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
     </row>
-    <row r="157" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
     </row>
-    <row r="158" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
     </row>
-    <row r="159" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
     </row>
-    <row r="160" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
     </row>
-    <row r="161" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E161" s="8"/>
       <c r="F161" s="8"/>
     </row>
-    <row r="162" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E162" s="8"/>
       <c r="F162" s="8"/>
     </row>
-    <row r="163" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
     </row>
-    <row r="164" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
     </row>
-    <row r="165" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
     </row>
-    <row r="166" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
     </row>
-    <row r="167" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
     </row>
-    <row r="168" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
     </row>
-    <row r="169" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
     </row>
-    <row r="170" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
     </row>
-    <row r="171" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
     </row>
-    <row r="172" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
     </row>
-    <row r="173" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
     </row>
-    <row r="174" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
     </row>
-    <row r="175" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
     </row>
-    <row r="176" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E176" s="8"/>
       <c r="F176" s="8"/>
     </row>
-    <row r="177" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
     </row>
-    <row r="178" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E178" s="8"/>
       <c r="F178" s="8"/>
     </row>
-    <row r="179" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
     </row>
-    <row r="180" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E180" s="8"/>
       <c r="F180" s="8"/>
     </row>
-    <row r="181" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E181" s="8"/>
       <c r="F181" s="8"/>
     </row>
-    <row r="182" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
     </row>
-    <row r="183" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E183" s="8"/>
       <c r="F183" s="8"/>
     </row>
-    <row r="184" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
     </row>
-    <row r="185" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
     </row>
-    <row r="186" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
     </row>
-    <row r="187" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
     </row>
-    <row r="188" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
     </row>
-    <row r="189" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E189" s="8"/>
       <c r="F189" s="8"/>
     </row>
-    <row r="190" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E190" s="8"/>
       <c r="F190" s="8"/>
     </row>
-    <row r="191" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E191" s="8"/>
       <c r="F191" s="8"/>
     </row>
-    <row r="192" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E192" s="8"/>
       <c r="F192" s="8"/>
     </row>
-    <row r="193" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E193" s="8"/>
       <c r="F193" s="8"/>
     </row>
-    <row r="194" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E194" s="8"/>
       <c r="F194" s="8"/>
     </row>
-    <row r="195" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E195" s="8"/>
       <c r="F195" s="8"/>
     </row>
-    <row r="196" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E196" s="8"/>
       <c r="F196" s="8"/>
     </row>
-    <row r="197" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E197" s="8"/>
       <c r="F197" s="8"/>
     </row>
-    <row r="198" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E198" s="8"/>
       <c r="F198" s="8"/>
     </row>
-    <row r="199" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E199" s="8"/>
       <c r="F199" s="8"/>
     </row>
-    <row r="200" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E200" s="8"/>
       <c r="F200" s="8"/>
     </row>
-    <row r="201" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
     </row>
-    <row r="202" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E202" s="8"/>
       <c r="F202" s="8"/>
     </row>
-    <row r="203" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E203" s="8"/>
       <c r="F203" s="8"/>
     </row>
-    <row r="204" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E204" s="8"/>
       <c r="F204" s="8"/>
     </row>
-    <row r="205" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E205" s="8"/>
       <c r="F205" s="8"/>
     </row>
-    <row r="206" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E206" s="8"/>
       <c r="F206" s="8"/>
     </row>
-    <row r="207" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E207" s="8"/>
       <c r="F207" s="8"/>
     </row>
-    <row r="208" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E208" s="8"/>
       <c r="F208" s="8"/>
     </row>
-    <row r="209" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E209" s="8"/>
       <c r="F209" s="8"/>
     </row>
-    <row r="210" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E210" s="8"/>
       <c r="F210" s="8"/>
     </row>
-    <row r="211" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E211" s="8"/>
       <c r="F211" s="8"/>
     </row>
-    <row r="212" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E212" s="8"/>
       <c r="F212" s="8"/>
     </row>
-    <row r="213" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E213" s="8"/>
       <c r="F213" s="8"/>
     </row>
-    <row r="214" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E214" s="8"/>
       <c r="F214" s="8"/>
     </row>
-    <row r="215" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E215" s="8"/>
       <c r="F215" s="8"/>
     </row>
-    <row r="216" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E216" s="8"/>
       <c r="F216" s="8"/>
     </row>
-    <row r="217" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E217" s="8"/>
       <c r="F217" s="8"/>
     </row>
-    <row r="218" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E218" s="8"/>
       <c r="F218" s="8"/>
     </row>
-    <row r="219" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E219" s="8"/>
       <c r="F219" s="8"/>
     </row>
-    <row r="220" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E220" s="8"/>
       <c r="F220" s="8"/>
     </row>
-    <row r="221" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E221" s="8"/>
       <c r="F221" s="8"/>
     </row>
-    <row r="222" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E222" s="8"/>
       <c r="F222" s="8"/>
     </row>
-    <row r="223" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E223" s="8"/>
       <c r="F223" s="8"/>
     </row>
-    <row r="224" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E224" s="8"/>
       <c r="F224" s="8"/>
     </row>
-    <row r="225" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E225" s="8"/>
       <c r="F225" s="8"/>
     </row>
-    <row r="226" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E226" s="8"/>
       <c r="F226" s="8"/>
     </row>
-    <row r="227" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E227" s="8"/>
       <c r="F227" s="8"/>
     </row>
-    <row r="228" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E228" s="8"/>
       <c r="F228" s="8"/>
     </row>
-    <row r="229" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E229" s="8"/>
       <c r="F229" s="8"/>
     </row>
-    <row r="230" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E230" s="8"/>
       <c r="F230" s="8"/>
     </row>
-    <row r="231" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E231" s="8"/>
       <c r="F231" s="8"/>
     </row>
-    <row r="232" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E232" s="8"/>
       <c r="F232" s="8"/>
     </row>
-    <row r="233" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E233" s="8"/>
       <c r="F233" s="8"/>
     </row>
-    <row r="234" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E234" s="8"/>
       <c r="F234" s="8"/>
     </row>
-    <row r="235" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E235" s="8"/>
       <c r="F235" s="8"/>
     </row>
-    <row r="236" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E236" s="8"/>
       <c r="F236" s="8"/>
     </row>
-    <row r="237" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E237" s="8"/>
       <c r="F237" s="8"/>
     </row>
-    <row r="238" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E238" s="8"/>
       <c r="F238" s="8"/>
     </row>
-    <row r="239" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E239" s="8"/>
       <c r="F239" s="8"/>
     </row>
-    <row r="240" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E240" s="8"/>
       <c r="F240" s="8"/>
     </row>
-    <row r="241" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E241" s="8"/>
       <c r="F241" s="8"/>
     </row>
-    <row r="242" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E242" s="8"/>
       <c r="F242" s="8"/>
     </row>
-    <row r="243" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E243" s="8"/>
       <c r="F243" s="8"/>
     </row>
-    <row r="244" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E244" s="8"/>
       <c r="F244" s="8"/>
     </row>
-    <row r="245" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E245" s="8"/>
       <c r="F245" s="8"/>
     </row>
-    <row r="246" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E246" s="8"/>
       <c r="F246" s="8"/>
     </row>
-    <row r="247" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E247" s="8"/>
       <c r="F247" s="8"/>
     </row>
-    <row r="248" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E248" s="8"/>
       <c r="F248" s="8"/>
     </row>
-    <row r="249" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E249" s="8"/>
       <c r="F249" s="8"/>
     </row>
-    <row r="250" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E250" s="8"/>
       <c r="F250" s="8"/>
     </row>
-    <row r="251" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E251" s="8"/>
       <c r="F251" s="8"/>
     </row>
-    <row r="252" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E252" s="8"/>
       <c r="F252" s="8"/>
     </row>
-    <row r="253" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E253" s="8"/>
       <c r="F253" s="8"/>
     </row>
-    <row r="254" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E254" s="8"/>
       <c r="F254" s="8"/>
     </row>
-    <row r="255" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E255" s="8"/>
       <c r="F255" s="8"/>
     </row>
-    <row r="256" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E256" s="8"/>
       <c r="F256" s="8"/>
     </row>
-    <row r="257" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E257" s="8"/>
       <c r="F257" s="8"/>
     </row>
-    <row r="258" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E258" s="8"/>
       <c r="F258" s="8"/>
     </row>
-    <row r="259" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E259" s="8"/>
       <c r="F259" s="8"/>
     </row>
-    <row r="260" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E260" s="8"/>
       <c r="F260" s="8"/>
     </row>
-    <row r="261" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E261" s="8"/>
       <c r="F261" s="8"/>
     </row>
-    <row r="262" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E262" s="8"/>
       <c r="F262" s="8"/>
     </row>
-    <row r="263" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E263" s="8"/>
       <c r="F263" s="8"/>
     </row>
-    <row r="264" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E264" s="8"/>
       <c r="F264" s="8"/>
     </row>
-    <row r="265" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E265" s="8"/>
       <c r="F265" s="8"/>
     </row>
-    <row r="266" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E266" s="8"/>
       <c r="F266" s="8"/>
     </row>
-    <row r="267" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E267" s="8"/>
       <c r="F267" s="8"/>
     </row>
-    <row r="268" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E268" s="8"/>
       <c r="F268" s="8"/>
     </row>
-    <row r="269" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E269" s="8"/>
       <c r="F269" s="8"/>
     </row>
-    <row r="270" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E270" s="8"/>
       <c r="F270" s="8"/>
     </row>
-    <row r="271" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E271" s="8"/>
       <c r="F271" s="8"/>
     </row>
-    <row r="272" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E272" s="8"/>
       <c r="F272" s="8"/>
     </row>
-    <row r="273" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E273" s="8"/>
       <c r="F273" s="8"/>
     </row>
-    <row r="274" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E274" s="8"/>
       <c r="F274" s="8"/>
     </row>
-    <row r="275" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E275" s="8"/>
       <c r="F275" s="8"/>
     </row>
-    <row r="276" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E276" s="8"/>
       <c r="F276" s="8"/>
     </row>
-    <row r="277" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E277" s="8"/>
       <c r="F277" s="8"/>
     </row>
-    <row r="278" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E278" s="8"/>
       <c r="F278" s="8"/>
     </row>
-    <row r="279" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E279" s="8"/>
       <c r="F279" s="8"/>
     </row>
-    <row r="280" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E280" s="8"/>
       <c r="F280" s="8"/>
     </row>
-    <row r="281" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E281" s="8"/>
       <c r="F281" s="8"/>
     </row>
-    <row r="282" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E282" s="8"/>
       <c r="F282" s="8"/>
     </row>
-    <row r="283" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E283" s="8"/>
       <c r="F283" s="8"/>
     </row>
-    <row r="284" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E284" s="8"/>
       <c r="F284" s="8"/>
     </row>
-    <row r="285" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E285" s="8"/>
       <c r="F285" s="8"/>
     </row>
-    <row r="286" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E286" s="8"/>
       <c r="F286" s="8"/>
     </row>
-    <row r="287" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E287" s="8"/>
       <c r="F287" s="8"/>
     </row>
-    <row r="288" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E288" s="8"/>
       <c r="F288" s="8"/>
     </row>
-    <row r="289" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E289" s="8"/>
       <c r="F289" s="8"/>
     </row>
-    <row r="290" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E290" s="8"/>
       <c r="F290" s="8"/>
     </row>
-    <row r="291" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E291" s="8"/>
       <c r="F291" s="8"/>
     </row>
-    <row r="292" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E292" s="8"/>
       <c r="F292" s="8"/>
     </row>
-    <row r="293" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E293" s="8"/>
       <c r="F293" s="8"/>
     </row>
-    <row r="294" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E294" s="8"/>
       <c r="F294" s="8"/>
     </row>
-    <row r="295" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E295" s="8"/>
       <c r="F295" s="8"/>
     </row>
-    <row r="296" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E296" s="8"/>
       <c r="F296" s="8"/>
     </row>
-    <row r="297" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E297" s="8"/>
       <c r="F297" s="8"/>
     </row>
-    <row r="298" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E298" s="8"/>
       <c r="F298" s="8"/>
     </row>
-    <row r="299" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E299" s="8"/>
       <c r="F299" s="8"/>
     </row>
-    <row r="300" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E300" s="8"/>
       <c r="F300" s="8"/>
     </row>
-    <row r="301" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E301" s="8"/>
       <c r="F301" s="8"/>
     </row>
-    <row r="302" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E302" s="8"/>
       <c r="F302" s="8"/>
     </row>
-    <row r="303" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E303" s="8"/>
       <c r="F303" s="8"/>
     </row>
-    <row r="304" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E304" s="8"/>
       <c r="F304" s="8"/>
     </row>
-    <row r="305" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E305" s="8"/>
       <c r="F305" s="8"/>
     </row>
-    <row r="306" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E306" s="8"/>
       <c r="F306" s="8"/>
     </row>
-    <row r="307" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E307" s="8"/>
       <c r="F307" s="8"/>
     </row>
-    <row r="308" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E308" s="8"/>
       <c r="F308" s="8"/>
     </row>
-    <row r="309" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E309" s="8"/>
       <c r="F309" s="8"/>
     </row>
-    <row r="310" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E310" s="8"/>
       <c r="F310" s="8"/>
     </row>
-    <row r="311" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E311" s="8"/>
       <c r="F311" s="8"/>
     </row>
-    <row r="312" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E312" s="8"/>
       <c r="F312" s="8"/>
     </row>
-    <row r="313" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E313" s="8"/>
       <c r="F313" s="8"/>
     </row>
-    <row r="314" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E314" s="8"/>
       <c r="F314" s="8"/>
     </row>
-    <row r="315" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E315" s="8"/>
       <c r="F315" s="8"/>
     </row>
-    <row r="316" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E316" s="8"/>
       <c r="F316" s="8"/>
     </row>
-    <row r="317" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E317" s="8"/>
       <c r="F317" s="8"/>
     </row>
-    <row r="318" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E318" s="8"/>
       <c r="F318" s="8"/>
     </row>
-    <row r="319" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E319" s="8"/>
       <c r="F319" s="8"/>
     </row>
-    <row r="320" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E320" s="8"/>
       <c r="F320" s="8"/>
     </row>
-    <row r="321" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E321" s="8"/>
       <c r="F321" s="8"/>
     </row>
-    <row r="322" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E322" s="8"/>
       <c r="F322" s="8"/>
     </row>
-    <row r="323" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E323" s="8"/>
       <c r="F323" s="8"/>
     </row>
-    <row r="324" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E324" s="8"/>
       <c r="F324" s="8"/>
     </row>
-    <row r="325" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E325" s="8"/>
       <c r="F325" s="8"/>
     </row>
-    <row r="326" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E326" s="8"/>
       <c r="F326" s="8"/>
     </row>
-    <row r="327" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E327" s="8"/>
       <c r="F327" s="8"/>
     </row>
-    <row r="328" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E328" s="8"/>
       <c r="F328" s="8"/>
     </row>
-    <row r="329" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E329" s="8"/>
       <c r="F329" s="8"/>
     </row>
-    <row r="330" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E330" s="8"/>
       <c r="F330" s="8"/>
     </row>
-    <row r="331" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E331" s="8"/>
       <c r="F331" s="8"/>
     </row>
-    <row r="332" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E332" s="8"/>
       <c r="F332" s="8"/>
     </row>
-    <row r="333" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E333" s="8"/>
       <c r="F333" s="8"/>
     </row>
-    <row r="334" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E334" s="8"/>
       <c r="F334" s="8"/>
     </row>
-    <row r="335" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E335" s="8"/>
       <c r="F335" s="8"/>
     </row>
-    <row r="336" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E336" s="8"/>
       <c r="F336" s="8"/>
     </row>
-    <row r="337" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E337" s="8"/>
       <c r="F337" s="8"/>
     </row>
-    <row r="338" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E338" s="8"/>
       <c r="F338" s="8"/>
     </row>
-    <row r="339" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E339" s="8"/>
       <c r="F339" s="8"/>
     </row>
-    <row r="340" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E340" s="8"/>
       <c r="F340" s="8"/>
     </row>
-    <row r="341" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E341" s="8"/>
       <c r="F341" s="8"/>
     </row>
-    <row r="342" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E342" s="8"/>
       <c r="F342" s="8"/>
     </row>
-    <row r="343" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E343" s="8"/>
       <c r="F343" s="8"/>
     </row>
-    <row r="344" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E344" s="8"/>
       <c r="F344" s="8"/>
     </row>
-    <row r="345" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E345" s="8"/>
       <c r="F345" s="8"/>
     </row>
-    <row r="346" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E346" s="8"/>
       <c r="F346" s="8"/>
     </row>
-    <row r="347" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E347" s="8"/>
       <c r="F347" s="8"/>
     </row>
-    <row r="348" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E348" s="8"/>
       <c r="F348" s="8"/>
     </row>
-    <row r="349" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E349" s="8"/>
       <c r="F349" s="8"/>
     </row>
-    <row r="350" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E350" s="8"/>
       <c r="F350" s="8"/>
     </row>
-    <row r="351" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E351" s="8"/>
       <c r="F351" s="8"/>
     </row>
-    <row r="352" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E352" s="8"/>
       <c r="F352" s="8"/>
     </row>
-    <row r="353" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E353" s="8"/>
       <c r="F353" s="8"/>
     </row>
-    <row r="354" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E354" s="8"/>
       <c r="F354" s="8"/>
     </row>
-    <row r="355" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E355" s="8"/>
       <c r="F355" s="8"/>
     </row>
-    <row r="356" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E356" s="8"/>
       <c r="F356" s="8"/>
     </row>
-    <row r="357" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E357" s="8"/>
       <c r="F357" s="8"/>
     </row>
-    <row r="358" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E358" s="8"/>
       <c r="F358" s="8"/>
     </row>
-    <row r="359" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E359" s="8"/>
       <c r="F359" s="8"/>
     </row>
-    <row r="360" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E360" s="8"/>
       <c r="F360" s="8"/>
     </row>
-    <row r="361" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E361" s="8"/>
       <c r="F361" s="8"/>
     </row>
-    <row r="362" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E362" s="8"/>
       <c r="F362" s="8"/>
     </row>
-    <row r="363" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E363" s="8"/>
       <c r="F363" s="8"/>
     </row>
-    <row r="364" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E364" s="8"/>
       <c r="F364" s="8"/>
     </row>
-    <row r="365" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E365" s="8"/>
       <c r="F365" s="8"/>
     </row>
-    <row r="366" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E366" s="8"/>
       <c r="F366" s="8"/>
     </row>
-    <row r="367" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E367" s="8"/>
       <c r="F367" s="8"/>
     </row>
-    <row r="368" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E368" s="8"/>
       <c r="F368" s="8"/>
     </row>
-    <row r="369" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E369" s="8"/>
       <c r="F369" s="8"/>
     </row>
-    <row r="370" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E370" s="8"/>
       <c r="F370" s="8"/>
     </row>
-    <row r="371" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E371" s="8"/>
       <c r="F371" s="8"/>
     </row>
-    <row r="372" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E372" s="8"/>
       <c r="F372" s="8"/>
     </row>
-    <row r="373" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E373" s="8"/>
       <c r="F373" s="8"/>
     </row>
-    <row r="374" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E374" s="8"/>
       <c r="F374" s="8"/>
     </row>
-    <row r="375" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E375" s="8"/>
       <c r="F375" s="8"/>
     </row>
-    <row r="376" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E376" s="8"/>
       <c r="F376" s="8"/>
     </row>
-    <row r="377" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E377" s="8"/>
       <c r="F377" s="8"/>
     </row>
-    <row r="378" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E378" s="8"/>
       <c r="F378" s="8"/>
     </row>
-    <row r="379" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E379" s="8"/>
       <c r="F379" s="8"/>
     </row>
-    <row r="380" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E380" s="8"/>
       <c r="F380" s="8"/>
     </row>
-    <row r="381" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E381" s="8"/>
       <c r="F381" s="8"/>
     </row>
-    <row r="382" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E382" s="8"/>
       <c r="F382" s="8"/>
     </row>
-    <row r="383" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E383" s="8"/>
       <c r="F383" s="8"/>
     </row>
-    <row r="384" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E384" s="8"/>
       <c r="F384" s="8"/>
     </row>
-    <row r="385" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E385" s="8"/>
       <c r="F385" s="8"/>
     </row>
-    <row r="386" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E386" s="8"/>
       <c r="F386" s="8"/>
     </row>
-    <row r="387" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E387" s="8"/>
       <c r="F387" s="8"/>
     </row>
-    <row r="388" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E388" s="8"/>
       <c r="F388" s="8"/>
     </row>
-    <row r="389" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E389" s="8"/>
       <c r="F389" s="8"/>
     </row>
-    <row r="390" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E390" s="8"/>
       <c r="F390" s="8"/>
     </row>
-    <row r="391" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E391" s="8"/>
       <c r="F391" s="8"/>
     </row>
-    <row r="392" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E392" s="8"/>
       <c r="F392" s="8"/>
     </row>
-    <row r="393" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E393" s="8"/>
       <c r="F393" s="8"/>
     </row>
-    <row r="394" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E394" s="8"/>
       <c r="F394" s="8"/>
     </row>
-    <row r="395" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E395" s="8"/>
       <c r="F395" s="8"/>
     </row>
-    <row r="396" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E396" s="8"/>
       <c r="F396" s="8"/>
     </row>
-    <row r="397" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E397" s="8"/>
       <c r="F397" s="8"/>
     </row>
-    <row r="398" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E398" s="8"/>
       <c r="F398" s="8"/>
     </row>
-    <row r="399" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E399" s="8"/>
       <c r="F399" s="8"/>
     </row>
-    <row r="400" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E400" s="8"/>
       <c r="F400" s="8"/>
     </row>
-    <row r="401" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="401" spans="5:30" x14ac:dyDescent="0.2">
       <c r="E401" s="8"/>
       <c r="F401" s="8"/>
     </row>
-    <row r="402" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="402" spans="5:30" x14ac:dyDescent="0.2">
       <c r="E402" s="8"/>
       <c r="F402" s="8"/>
     </row>
-    <row r="403" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="403" spans="5:30" x14ac:dyDescent="0.2">
       <c r="E403" s="8"/>
       <c r="F403" s="8"/>
       <c r="AD403" s="14"/>
     </row>
-    <row r="404" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="404" spans="5:30" x14ac:dyDescent="0.2">
       <c r="E404" s="8"/>
       <c r="F404" s="8"/>
     </row>
-    <row r="405" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="405" spans="5:30" x14ac:dyDescent="0.2">
       <c r="E405" s="8"/>
       <c r="F405" s="8"/>
     </row>
-    <row r="406" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="406" spans="5:30" x14ac:dyDescent="0.2">
       <c r="E406" s="8"/>
       <c r="F406" s="8"/>
     </row>
-    <row r="407" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="407" spans="5:30" x14ac:dyDescent="0.2">
       <c r="E407" s="8"/>
       <c r="F407" s="8"/>
     </row>
-    <row r="408" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="408" spans="5:30" x14ac:dyDescent="0.2">
       <c r="E408" s="8"/>
       <c r="F408" s="8"/>
     </row>
-    <row r="409" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="409" spans="5:30" x14ac:dyDescent="0.2">
       <c r="E409" s="8"/>
       <c r="F409" s="8"/>
     </row>
-    <row r="410" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="410" spans="5:30" x14ac:dyDescent="0.2">
       <c r="E410" s="8"/>
       <c r="F410" s="8"/>
     </row>
-    <row r="411" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="411" spans="5:30" x14ac:dyDescent="0.2">
       <c r="E411" s="8"/>
       <c r="F411" s="8"/>
     </row>
-    <row r="412" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="412" spans="5:30" x14ac:dyDescent="0.2">
       <c r="E412" s="8"/>
       <c r="F412" s="8"/>
     </row>
-    <row r="413" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="413" spans="5:30" x14ac:dyDescent="0.2">
       <c r="E413" s="8"/>
       <c r="F413" s="8"/>
     </row>
-    <row r="414" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="414" spans="5:30" x14ac:dyDescent="0.2">
       <c r="E414" s="8"/>
       <c r="F414" s="8"/>
     </row>
-    <row r="415" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="415" spans="5:30" x14ac:dyDescent="0.2">
       <c r="E415" s="8"/>
       <c r="F415" s="8"/>
     </row>
-    <row r="416" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="416" spans="5:30" x14ac:dyDescent="0.2">
       <c r="E416" s="8"/>
       <c r="F416" s="8"/>
     </row>
-    <row r="417" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E417" s="8"/>
       <c r="F417" s="8"/>
     </row>
-    <row r="418" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E418" s="8"/>
       <c r="F418" s="8"/>
     </row>
-    <row r="419" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E419" s="8"/>
       <c r="F419" s="8"/>
     </row>
-    <row r="420" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E420" s="8"/>
       <c r="F420" s="8"/>
     </row>
-    <row r="421" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E421" s="8"/>
       <c r="F421" s="8"/>
     </row>
-    <row r="422" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E422" s="8"/>
       <c r="F422" s="8"/>
     </row>
-    <row r="423" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E423" s="8"/>
       <c r="F423" s="8"/>
     </row>
-    <row r="424" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E424" s="8"/>
       <c r="F424" s="8"/>
     </row>
-    <row r="425" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E425" s="8"/>
       <c r="F425" s="8"/>
     </row>
-    <row r="426" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E426" s="8"/>
       <c r="F426" s="8"/>
     </row>
-    <row r="427" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E427" s="8"/>
       <c r="F427" s="8"/>
     </row>
-    <row r="428" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E428" s="8"/>
       <c r="F428" s="8"/>
     </row>
-    <row r="429" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E429" s="8"/>
       <c r="F429" s="8"/>
     </row>
-    <row r="430" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E430" s="8"/>
       <c r="F430" s="8"/>
     </row>
-    <row r="431" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E431" s="8"/>
       <c r="F431" s="8"/>
     </row>
-    <row r="432" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E432" s="8"/>
       <c r="F432" s="8"/>
     </row>
-    <row r="433" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E433" s="8"/>
       <c r="F433" s="8"/>
     </row>
-    <row r="434" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E434" s="8"/>
       <c r="F434" s="8"/>
     </row>
-    <row r="435" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E435" s="8"/>
       <c r="F435" s="8"/>
     </row>
-    <row r="436" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E436" s="8"/>
       <c r="F436" s="8"/>
     </row>
-    <row r="437" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E437" s="8"/>
       <c r="F437" s="8"/>
     </row>
-    <row r="438" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E438" s="8"/>
       <c r="F438" s="8"/>
     </row>
-    <row r="439" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E439" s="8"/>
       <c r="F439" s="8"/>
     </row>
-    <row r="440" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E440" s="8"/>
       <c r="F440" s="8"/>
     </row>
-    <row r="441" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E441" s="8"/>
       <c r="F441" s="8"/>
     </row>
-    <row r="442" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E442" s="8"/>
       <c r="F442" s="8"/>
     </row>
-    <row r="443" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E443" s="8"/>
       <c r="F443" s="8"/>
     </row>
-    <row r="444" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E444" s="8"/>
       <c r="F444" s="8"/>
     </row>
-    <row r="445" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E445" s="8"/>
       <c r="F445" s="8"/>
     </row>
-    <row r="446" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E446" s="8"/>
       <c r="F446" s="8"/>
     </row>
-    <row r="447" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E447" s="8"/>
       <c r="F447" s="8"/>
     </row>
-    <row r="448" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E448" s="8"/>
       <c r="F448" s="8"/>
     </row>
-    <row r="449" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E449" s="8"/>
       <c r="F449" s="8"/>
     </row>
-    <row r="450" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E450" s="8"/>
       <c r="F450" s="8"/>
     </row>
-    <row r="451" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E451" s="8"/>
       <c r="F451" s="8"/>
     </row>
-    <row r="452" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E452" s="8"/>
       <c r="F452" s="8"/>
     </row>
-    <row r="453" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E453" s="8"/>
       <c r="F453" s="8"/>
     </row>
-    <row r="454" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E454" s="8"/>
       <c r="F454" s="8"/>
     </row>
-    <row r="455" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E455" s="8"/>
       <c r="F455" s="8"/>
     </row>
-    <row r="456" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E456" s="8"/>
       <c r="F456" s="8"/>
     </row>
-    <row r="457" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E457" s="8"/>
       <c r="F457" s="8"/>
     </row>
-    <row r="458" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E458" s="8"/>
       <c r="F458" s="8"/>
     </row>
-    <row r="459" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E459" s="8"/>
       <c r="F459" s="8"/>
     </row>
-    <row r="460" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E460" s="8"/>
       <c r="F460" s="8"/>
     </row>
-    <row r="461" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E461" s="8"/>
       <c r="F461" s="8"/>
     </row>
-    <row r="462" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E462" s="8"/>
       <c r="F462" s="8"/>
     </row>
-    <row r="463" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E463" s="8"/>
       <c r="F463" s="8"/>
     </row>
-    <row r="464" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E464" s="8"/>
       <c r="F464" s="8"/>
     </row>
-    <row r="465" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E465" s="8"/>
       <c r="F465" s="8"/>
     </row>
-    <row r="466" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E466" s="8"/>
       <c r="F466" s="8"/>
     </row>
-    <row r="467" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E467" s="8"/>
       <c r="F467" s="8"/>
     </row>
-    <row r="468" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E468" s="8"/>
       <c r="F468" s="8"/>
     </row>
-    <row r="469" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E469" s="8"/>
       <c r="F469" s="8"/>
     </row>
-    <row r="470" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E470" s="8"/>
       <c r="F470" s="8"/>
     </row>
-    <row r="471" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E471" s="8"/>
       <c r="F471" s="8"/>
     </row>
-    <row r="472" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E472" s="8"/>
       <c r="F472" s="8"/>
     </row>
-    <row r="473" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E473" s="8"/>
       <c r="F473" s="8"/>
     </row>
-    <row r="474" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E474" s="8"/>
       <c r="F474" s="8"/>
     </row>
-    <row r="475" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E475" s="8"/>
       <c r="F475" s="8"/>
     </row>
-    <row r="476" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E476" s="8"/>
       <c r="F476" s="8"/>
     </row>
-    <row r="477" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E477" s="8"/>
       <c r="F477" s="8"/>
     </row>
-    <row r="478" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E478" s="8"/>
       <c r="F478" s="8"/>
     </row>
-    <row r="479" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E479" s="8"/>
       <c r="F479" s="8"/>
     </row>
-    <row r="480" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E480" s="8"/>
       <c r="F480" s="8"/>
     </row>
-    <row r="481" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E481" s="8"/>
       <c r="F481" s="8"/>
     </row>
-    <row r="482" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E482" s="8"/>
       <c r="F482" s="8"/>
     </row>
-    <row r="483" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E483" s="8"/>
       <c r="F483" s="8"/>
     </row>
-    <row r="484" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E484" s="8"/>
       <c r="F484" s="8"/>
     </row>
-    <row r="485" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E485" s="8"/>
       <c r="F485" s="8"/>
     </row>
-    <row r="486" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E486" s="8"/>
       <c r="F486" s="8"/>
     </row>
-    <row r="487" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E487" s="8"/>
       <c r="F487" s="8"/>
     </row>
-    <row r="488" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E488" s="8"/>
       <c r="F488" s="8"/>
     </row>
-    <row r="489" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E489" s="8"/>
       <c r="F489" s="8"/>
     </row>
-    <row r="490" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E490" s="8"/>
       <c r="F490" s="8"/>
     </row>
-    <row r="491" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E491" s="8"/>
       <c r="F491" s="8"/>
     </row>
-    <row r="492" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E492" s="8"/>
       <c r="F492" s="8"/>
     </row>
-    <row r="493" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E493" s="8"/>
       <c r="F493" s="8"/>
     </row>
-    <row r="494" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E494" s="8"/>
       <c r="F494" s="8"/>
     </row>
-    <row r="495" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E495" s="8"/>
       <c r="F495" s="8"/>
     </row>
-    <row r="496" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E496" s="8"/>
       <c r="F496" s="8"/>
     </row>
-    <row r="497" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E497" s="8"/>
       <c r="F497" s="8"/>
     </row>
-    <row r="498" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E498" s="8"/>
       <c r="F498" s="8"/>
     </row>
-    <row r="499" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E499" s="8"/>
       <c r="F499" s="8"/>
     </row>
-    <row r="500" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E500" s="8"/>
       <c r="F500" s="8"/>
     </row>
-    <row r="501" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E501" s="8"/>
       <c r="F501" s="8"/>
     </row>
-    <row r="502" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E502" s="8"/>
       <c r="F502" s="8"/>
     </row>
-    <row r="503" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E503" s="8"/>
       <c r="F503" s="8"/>
     </row>
-    <row r="504" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E504" s="8"/>
       <c r="F504" s="8"/>
     </row>
-    <row r="505" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E505" s="8"/>
       <c r="F505" s="8"/>
     </row>
-    <row r="506" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E506" s="8"/>
       <c r="F506" s="8"/>
     </row>
-    <row r="507" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E507" s="8"/>
       <c r="F507" s="8"/>
     </row>
-    <row r="508" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E508" s="8"/>
       <c r="F508" s="8"/>
     </row>
-    <row r="509" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E509" s="8"/>
       <c r="F509" s="8"/>
     </row>
-    <row r="510" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E510" s="8"/>
       <c r="F510" s="8"/>
     </row>
-    <row r="511" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E511" s="8"/>
       <c r="F511" s="8"/>
     </row>
-    <row r="512" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E512" s="8"/>
       <c r="F512" s="8"/>
     </row>
-    <row r="513" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="513" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E513" s="8"/>
       <c r="F513" s="8"/>
     </row>
-    <row r="514" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="514" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E514" s="8"/>
       <c r="F514" s="8"/>
     </row>
-    <row r="515" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="515" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E515" s="8"/>
       <c r="F515" s="8"/>
     </row>
-    <row r="516" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="516" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E516" s="8"/>
       <c r="F516" s="8"/>
     </row>
-    <row r="517" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="517" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E517" s="8"/>
       <c r="F517" s="8"/>
     </row>
-    <row r="518" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="518" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E518" s="8"/>
       <c r="F518" s="8"/>
     </row>
-    <row r="519" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="519" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E519" s="8"/>
       <c r="F519" s="8"/>
     </row>
-    <row r="520" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="520" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E520" s="8"/>
       <c r="F520" s="8"/>
     </row>
-    <row r="521" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="521" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E521" s="8"/>
       <c r="F521" s="8"/>
     </row>
-    <row r="522" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="522" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E522" s="8"/>
       <c r="F522" s="8"/>
     </row>
-    <row r="523" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="523" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E523" s="8"/>
       <c r="F523" s="8"/>
     </row>
-    <row r="524" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="524" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E524" s="8"/>
       <c r="F524" s="8"/>
     </row>
-    <row r="525" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="525" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E525" s="8"/>
       <c r="F525" s="8"/>
     </row>
-    <row r="526" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="526" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E526" s="8"/>
       <c r="F526" s="8"/>
     </row>
-    <row r="527" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="527" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E527" s="8"/>
       <c r="F527" s="8"/>
     </row>
-    <row r="528" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="528" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E528" s="8"/>
       <c r="F528" s="8"/>
     </row>
-    <row r="529" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="529" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E529" s="8"/>
       <c r="F529" s="8"/>
     </row>
-    <row r="530" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="530" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E530" s="8"/>
       <c r="F530" s="8"/>
     </row>
-    <row r="531" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="531" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E531" s="8"/>
       <c r="F531" s="8"/>
     </row>
-    <row r="532" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="532" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E532" s="8"/>
       <c r="F532" s="8"/>
     </row>
-    <row r="533" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="533" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E533" s="8"/>
       <c r="F533" s="8"/>
     </row>
-    <row r="534" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="534" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E534" s="8"/>
       <c r="F534" s="8"/>
     </row>
-    <row r="535" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="535" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E535" s="8"/>
       <c r="F535" s="8"/>
     </row>
-    <row r="536" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="536" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E536" s="8"/>
       <c r="F536" s="8"/>
     </row>
-    <row r="537" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="537" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E537" s="8"/>
       <c r="F537" s="8"/>
     </row>
-    <row r="538" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="538" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E538" s="8"/>
       <c r="F538" s="8"/>
     </row>
-    <row r="539" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="539" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E539" s="8"/>
       <c r="F539" s="8"/>
     </row>
-    <row r="540" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="540" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E540" s="8"/>
       <c r="F540" s="8"/>
     </row>
-    <row r="541" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="541" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E541" s="8"/>
       <c r="F541" s="8"/>
     </row>
-    <row r="542" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="542" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E542" s="8"/>
       <c r="F542" s="8"/>
     </row>
-    <row r="543" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="543" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E543" s="8"/>
       <c r="F543" s="8"/>
     </row>
-    <row r="544" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="544" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E544" s="8"/>
       <c r="F544" s="8"/>
     </row>
-    <row r="545" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E545" s="8"/>
       <c r="F545" s="8"/>
     </row>
-    <row r="546" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E546" s="8"/>
       <c r="F546" s="8"/>
     </row>
-    <row r="547" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A547" s="8"/>
       <c r="C547" s="8"/>
       <c r="D547" s="8"/>
@@ -3172,7 +3172,7 @@
       <c r="Y547" s="15"/>
       <c r="Z547" s="15"/>
     </row>
-    <row r="548" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A548" s="8"/>
       <c r="C548" s="8"/>
       <c r="D548" s="8"/>
@@ -3199,7 +3199,7 @@
       <c r="Y548" s="15"/>
       <c r="Z548" s="15"/>
     </row>
-    <row r="549" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A549" s="8"/>
       <c r="C549" s="8"/>
       <c r="D549" s="8"/>
@@ -3226,7 +3226,7 @@
       <c r="Y549" s="15"/>
       <c r="Z549" s="15"/>
     </row>
-    <row r="550" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A550" s="8"/>
       <c r="C550" s="8"/>
       <c r="D550" s="8"/>
@@ -3253,7 +3253,7 @@
       <c r="Y550" s="15"/>
       <c r="Z550" s="15"/>
     </row>
-    <row r="551" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A551" s="8"/>
       <c r="C551" s="8"/>
       <c r="D551" s="8"/>
@@ -3280,7 +3280,7 @@
       <c r="Y551" s="15"/>
       <c r="Z551" s="15"/>
     </row>
-    <row r="552" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A552" s="8"/>
       <c r="C552" s="8"/>
       <c r="D552" s="8"/>
@@ -3307,7 +3307,7 @@
       <c r="Y552" s="15"/>
       <c r="Z552" s="15"/>
     </row>
-    <row r="553" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A553" s="8"/>
       <c r="C553" s="8"/>
       <c r="D553" s="8"/>
@@ -3334,7 +3334,7 @@
       <c r="Y553" s="15"/>
       <c r="Z553" s="15"/>
     </row>
-    <row r="554" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A554" s="8"/>
       <c r="C554" s="8"/>
       <c r="D554" s="8"/>
@@ -3361,7 +3361,7 @@
       <c r="Y554" s="15"/>
       <c r="Z554" s="15"/>
     </row>
-    <row r="555" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A555" s="8"/>
       <c r="C555" s="8"/>
       <c r="D555" s="8"/>
@@ -3388,7 +3388,7 @@
       <c r="Y555" s="15"/>
       <c r="Z555" s="15"/>
     </row>
-    <row r="556" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A556" s="8"/>
       <c r="C556" s="8"/>
       <c r="D556" s="8"/>
@@ -3415,7 +3415,7 @@
       <c r="Y556" s="15"/>
       <c r="Z556" s="15"/>
     </row>
-    <row r="557" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A557" s="8"/>
       <c r="C557" s="8"/>
       <c r="D557" s="8"/>
@@ -3442,7 +3442,7 @@
       <c r="Y557" s="15"/>
       <c r="Z557" s="15"/>
     </row>
-    <row r="558" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A558" s="8"/>
       <c r="C558" s="8"/>
       <c r="D558" s="8"/>
@@ -3469,7 +3469,7 @@
       <c r="Y558" s="15"/>
       <c r="Z558" s="15"/>
     </row>
-    <row r="559" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A559" s="8"/>
       <c r="C559" s="8"/>
       <c r="D559" s="8"/>
@@ -3496,7 +3496,7 @@
       <c r="Y559" s="15"/>
       <c r="Z559" s="15"/>
     </row>
-    <row r="560" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A560" s="8"/>
       <c r="C560" s="8"/>
       <c r="D560" s="8"/>
@@ -3523,7 +3523,7 @@
       <c r="Y560" s="15"/>
       <c r="Z560" s="15"/>
     </row>
-    <row r="561" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A561" s="8"/>
       <c r="C561" s="8"/>
       <c r="D561" s="8"/>
@@ -3550,7 +3550,7 @@
       <c r="Y561" s="15"/>
       <c r="Z561" s="15"/>
     </row>
-    <row r="562" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A562" s="8"/>
       <c r="C562" s="8"/>
       <c r="D562" s="8"/>
@@ -3577,7 +3577,7 @@
       <c r="Y562" s="15"/>
       <c r="Z562" s="15"/>
     </row>
-    <row r="563" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A563" s="8"/>
       <c r="C563" s="8"/>
       <c r="D563" s="8"/>
@@ -3604,7 +3604,7 @@
       <c r="Y563" s="15"/>
       <c r="Z563" s="15"/>
     </row>
-    <row r="564" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A564" s="8"/>
       <c r="C564" s="8"/>
       <c r="D564" s="8"/>
@@ -3631,7 +3631,7 @@
       <c r="Y564" s="15"/>
       <c r="Z564" s="15"/>
     </row>
-    <row r="565" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A565" s="8"/>
       <c r="C565" s="8"/>
       <c r="D565" s="8"/>
@@ -3658,7 +3658,7 @@
       <c r="Y565" s="15"/>
       <c r="Z565" s="15"/>
     </row>
-    <row r="566" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A566" s="8"/>
       <c r="C566" s="8"/>
       <c r="D566" s="8"/>
@@ -3685,7 +3685,7 @@
       <c r="Y566" s="15"/>
       <c r="Z566" s="15"/>
     </row>
-    <row r="567" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A567" s="8"/>
       <c r="C567" s="8"/>
       <c r="D567" s="8"/>
@@ -3712,7 +3712,7 @@
       <c r="Y567" s="15"/>
       <c r="Z567" s="15"/>
     </row>
-    <row r="568" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A568" s="8"/>
       <c r="C568" s="8"/>
       <c r="D568" s="8"/>
@@ -3739,7 +3739,7 @@
       <c r="Y568" s="15"/>
       <c r="Z568" s="15"/>
     </row>
-    <row r="569" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A569" s="8"/>
       <c r="C569" s="8"/>
       <c r="D569" s="8"/>
@@ -3766,7 +3766,7 @@
       <c r="Y569" s="15"/>
       <c r="Z569" s="15"/>
     </row>
-    <row r="570" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A570" s="8"/>
       <c r="C570" s="8"/>
       <c r="D570" s="8"/>
@@ -3793,7 +3793,7 @@
       <c r="Y570" s="15"/>
       <c r="Z570" s="15"/>
     </row>
-    <row r="571" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A571" s="8"/>
       <c r="C571" s="8"/>
       <c r="D571" s="8"/>
@@ -3820,7 +3820,7 @@
       <c r="Y571" s="15"/>
       <c r="Z571" s="15"/>
     </row>
-    <row r="572" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A572" s="8"/>
       <c r="C572" s="8"/>
       <c r="D572" s="8"/>
@@ -3847,7 +3847,7 @@
       <c r="Y572" s="15"/>
       <c r="Z572" s="15"/>
     </row>
-    <row r="573" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A573" s="8"/>
       <c r="C573" s="8"/>
       <c r="D573" s="8"/>
@@ -3874,7 +3874,7 @@
       <c r="Y573" s="15"/>
       <c r="Z573" s="15"/>
     </row>
-    <row r="574" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A574" s="8"/>
       <c r="C574" s="8"/>
       <c r="D574" s="8"/>
@@ -3901,7 +3901,7 @@
       <c r="Y574" s="15"/>
       <c r="Z574" s="15"/>
     </row>
-    <row r="575" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A575" s="8"/>
       <c r="C575" s="8"/>
       <c r="D575" s="8"/>
@@ -3928,7 +3928,7 @@
       <c r="Y575" s="15"/>
       <c r="Z575" s="15"/>
     </row>
-    <row r="576" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A576" s="8"/>
       <c r="C576" s="8"/>
       <c r="D576" s="8"/>
@@ -3955,7 +3955,7 @@
       <c r="Y576" s="15"/>
       <c r="Z576" s="15"/>
     </row>
-    <row r="577" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A577" s="8"/>
       <c r="C577" s="8"/>
       <c r="D577" s="8"/>
@@ -3982,7 +3982,7 @@
       <c r="Y577" s="15"/>
       <c r="Z577" s="15"/>
     </row>
-    <row r="578" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A578" s="8"/>
       <c r="C578" s="8"/>
       <c r="D578" s="8"/>
@@ -4009,7 +4009,7 @@
       <c r="Y578" s="15"/>
       <c r="Z578" s="15"/>
     </row>
-    <row r="579" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A579" s="8"/>
       <c r="C579" s="8"/>
       <c r="D579" s="8"/>
@@ -4036,7 +4036,7 @@
       <c r="Y579" s="15"/>
       <c r="Z579" s="15"/>
     </row>
-    <row r="580" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A580" s="8"/>
       <c r="C580" s="8"/>
       <c r="D580" s="8"/>
@@ -4063,7 +4063,7 @@
       <c r="Y580" s="15"/>
       <c r="Z580" s="15"/>
     </row>
-    <row r="581" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A581" s="8"/>
       <c r="C581" s="8"/>
       <c r="D581" s="8"/>
@@ -4090,7 +4090,7 @@
       <c r="Y581" s="15"/>
       <c r="Z581" s="15"/>
     </row>
-    <row r="582" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A582" s="8"/>
       <c r="C582" s="8"/>
       <c r="D582" s="8"/>
@@ -4117,7 +4117,7 @@
       <c r="Y582" s="15"/>
       <c r="Z582" s="15"/>
     </row>
-    <row r="583" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A583" s="8"/>
       <c r="C583" s="8"/>
       <c r="D583" s="8"/>
@@ -4144,7 +4144,7 @@
       <c r="Y583" s="15"/>
       <c r="Z583" s="15"/>
     </row>
-    <row r="584" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A584" s="8"/>
       <c r="C584" s="8"/>
       <c r="D584" s="8"/>
@@ -4171,7 +4171,7 @@
       <c r="Y584" s="15"/>
       <c r="Z584" s="15"/>
     </row>
-    <row r="585" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A585" s="8"/>
       <c r="C585" s="8"/>
       <c r="D585" s="8"/>
@@ -4198,7 +4198,7 @@
       <c r="Y585" s="15"/>
       <c r="Z585" s="15"/>
     </row>
-    <row r="586" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A586" s="8"/>
       <c r="C586" s="8"/>
       <c r="D586" s="8"/>
@@ -4225,7 +4225,7 @@
       <c r="Y586" s="15"/>
       <c r="Z586" s="15"/>
     </row>
-    <row r="587" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A587" s="8"/>
       <c r="C587" s="8"/>
       <c r="D587" s="8"/>
@@ -4252,7 +4252,7 @@
       <c r="Y587" s="15"/>
       <c r="Z587" s="15"/>
     </row>
-    <row r="588" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A588" s="8"/>
       <c r="C588" s="8"/>
       <c r="D588" s="8"/>
@@ -4279,7 +4279,7 @@
       <c r="Y588" s="15"/>
       <c r="Z588" s="15"/>
     </row>
-    <row r="589" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A589" s="8"/>
       <c r="C589" s="8"/>
       <c r="D589" s="8"/>
@@ -4306,7 +4306,7 @@
       <c r="Y589" s="15"/>
       <c r="Z589" s="15"/>
     </row>
-    <row r="590" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A590" s="8"/>
       <c r="C590" s="8"/>
       <c r="D590" s="8"/>
@@ -4333,7 +4333,7 @@
       <c r="Y590" s="15"/>
       <c r="Z590" s="15"/>
     </row>
-    <row r="591" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A591" s="8"/>
       <c r="C591" s="8"/>
       <c r="D591" s="8"/>
@@ -4360,7 +4360,7 @@
       <c r="Y591" s="15"/>
       <c r="Z591" s="15"/>
     </row>
-    <row r="592" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A592" s="8"/>
       <c r="C592" s="8"/>
       <c r="D592" s="8"/>
@@ -4387,7 +4387,7 @@
       <c r="Y592" s="15"/>
       <c r="Z592" s="15"/>
     </row>
-    <row r="593" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A593" s="8"/>
       <c r="C593" s="8"/>
       <c r="D593" s="8"/>
@@ -4414,7 +4414,7 @@
       <c r="Y593" s="15"/>
       <c r="Z593" s="15"/>
     </row>
-    <row r="594" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A594" s="8"/>
       <c r="C594" s="8"/>
       <c r="D594" s="8"/>
@@ -4441,7 +4441,7 @@
       <c r="Y594" s="15"/>
       <c r="Z594" s="15"/>
     </row>
-    <row r="595" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A595" s="8"/>
       <c r="C595" s="8"/>
       <c r="D595" s="8"/>
@@ -4468,7 +4468,7 @@
       <c r="Y595" s="15"/>
       <c r="Z595" s="15"/>
     </row>
-    <row r="596" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A596" s="8"/>
       <c r="C596" s="8"/>
       <c r="D596" s="8"/>
@@ -4495,7 +4495,7 @@
       <c r="Y596" s="15"/>
       <c r="Z596" s="15"/>
     </row>
-    <row r="597" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A597" s="8"/>
       <c r="C597" s="8"/>
       <c r="D597" s="8"/>
@@ -4522,7 +4522,7 @@
       <c r="Y597" s="15"/>
       <c r="Z597" s="15"/>
     </row>
-    <row r="598" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A598" s="8"/>
       <c r="C598" s="8"/>
       <c r="D598" s="8"/>
@@ -4549,7 +4549,7 @@
       <c r="Y598" s="15"/>
       <c r="Z598" s="15"/>
     </row>
-    <row r="599" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A599" s="8"/>
       <c r="C599" s="8"/>
       <c r="D599" s="8"/>
@@ -4576,7 +4576,7 @@
       <c r="Y599" s="15"/>
       <c r="Z599" s="15"/>
     </row>
-    <row r="600" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A600" s="8"/>
       <c r="C600" s="8"/>
       <c r="D600" s="8"/>
@@ -4603,7 +4603,7 @@
       <c r="Y600" s="15"/>
       <c r="Z600" s="15"/>
     </row>
-    <row r="601" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A601" s="8"/>
       <c r="C601" s="8"/>
       <c r="D601" s="8"/>
@@ -4630,7 +4630,7 @@
       <c r="Y601" s="15"/>
       <c r="Z601" s="15"/>
     </row>
-    <row r="602" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A602" s="8"/>
       <c r="C602" s="8"/>
       <c r="D602" s="8"/>
@@ -4657,7 +4657,7 @@
       <c r="Y602" s="15"/>
       <c r="Z602" s="15"/>
     </row>
-    <row r="603" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A603" s="8"/>
       <c r="C603" s="8"/>
       <c r="D603" s="8"/>
@@ -4684,7 +4684,7 @@
       <c r="Y603" s="15"/>
       <c r="Z603" s="15"/>
     </row>
-    <row r="604" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A604" s="8"/>
       <c r="C604" s="8"/>
       <c r="D604" s="8"/>
@@ -4711,7 +4711,7 @@
       <c r="Y604" s="15"/>
       <c r="Z604" s="15"/>
     </row>
-    <row r="605" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A605" s="8"/>
       <c r="C605" s="8"/>
       <c r="D605" s="8"/>
@@ -4738,7 +4738,7 @@
       <c r="Y605" s="15"/>
       <c r="Z605" s="15"/>
     </row>
-    <row r="606" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A606" s="8"/>
       <c r="C606" s="8"/>
       <c r="D606" s="8"/>
@@ -4765,7 +4765,7 @@
       <c r="Y606" s="15"/>
       <c r="Z606" s="15"/>
     </row>
-    <row r="607" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A607" s="8"/>
       <c r="C607" s="8"/>
       <c r="D607" s="8"/>
@@ -4792,7 +4792,7 @@
       <c r="Y607" s="15"/>
       <c r="Z607" s="15"/>
     </row>
-    <row r="608" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A608" s="8"/>
       <c r="C608" s="8"/>
       <c r="D608" s="8"/>
@@ -4819,7 +4819,7 @@
       <c r="Y608" s="15"/>
       <c r="Z608" s="15"/>
     </row>
-    <row r="609" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A609" s="8"/>
       <c r="C609" s="8"/>
       <c r="D609" s="8"/>
@@ -4846,7 +4846,7 @@
       <c r="Y609" s="15"/>
       <c r="Z609" s="15"/>
     </row>
-    <row r="610" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A610" s="8"/>
       <c r="C610" s="8"/>
       <c r="D610" s="8"/>
@@ -4873,7 +4873,7 @@
       <c r="Y610" s="15"/>
       <c r="Z610" s="15"/>
     </row>
-    <row r="611" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A611" s="8"/>
       <c r="C611" s="8"/>
       <c r="D611" s="8"/>
@@ -4900,7 +4900,7 @@
       <c r="Y611" s="15"/>
       <c r="Z611" s="15"/>
     </row>
-    <row r="612" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A612" s="8"/>
       <c r="C612" s="8"/>
       <c r="D612" s="8"/>
@@ -4927,7 +4927,7 @@
       <c r="Y612" s="15"/>
       <c r="Z612" s="15"/>
     </row>
-    <row r="613" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A613" s="8"/>
       <c r="C613" s="8"/>
       <c r="D613" s="8"/>
@@ -4954,7 +4954,7 @@
       <c r="Y613" s="15"/>
       <c r="Z613" s="15"/>
     </row>
-    <row r="614" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A614" s="8"/>
       <c r="C614" s="8"/>
       <c r="D614" s="8"/>
@@ -4981,7 +4981,7 @@
       <c r="Y614" s="15"/>
       <c r="Z614" s="15"/>
     </row>
-    <row r="615" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A615" s="8"/>
       <c r="C615" s="8"/>
       <c r="D615" s="8"/>
@@ -5008,7 +5008,7 @@
       <c r="Y615" s="15"/>
       <c r="Z615" s="15"/>
     </row>
-    <row r="616" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A616" s="8"/>
       <c r="C616" s="8"/>
       <c r="D616" s="8"/>
@@ -5035,7 +5035,7 @@
       <c r="Y616" s="15"/>
       <c r="Z616" s="15"/>
     </row>
-    <row r="617" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A617" s="8"/>
       <c r="C617" s="8"/>
       <c r="D617" s="8"/>
@@ -5062,7 +5062,7 @@
       <c r="Y617" s="15"/>
       <c r="Z617" s="15"/>
     </row>
-    <row r="618" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A618" s="8"/>
       <c r="C618" s="8"/>
       <c r="D618" s="8"/>
@@ -5089,7 +5089,7 @@
       <c r="Y618" s="15"/>
       <c r="Z618" s="15"/>
     </row>
-    <row r="619" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A619" s="8"/>
       <c r="C619" s="8"/>
       <c r="D619" s="8"/>
@@ -5116,7 +5116,7 @@
       <c r="Y619" s="15"/>
       <c r="Z619" s="15"/>
     </row>
-    <row r="620" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A620" s="8"/>
       <c r="C620" s="8"/>
       <c r="D620" s="8"/>
@@ -5143,7 +5143,7 @@
       <c r="Y620" s="15"/>
       <c r="Z620" s="15"/>
     </row>
-    <row r="621" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A621" s="8"/>
       <c r="C621" s="8"/>
       <c r="D621" s="8"/>
@@ -5170,7 +5170,7 @@
       <c r="Y621" s="15"/>
       <c r="Z621" s="15"/>
     </row>
-    <row r="622" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A622" s="8"/>
       <c r="C622" s="8"/>
       <c r="D622" s="8"/>
@@ -5197,7 +5197,7 @@
       <c r="Y622" s="15"/>
       <c r="Z622" s="15"/>
     </row>
-    <row r="623" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A623" s="8"/>
       <c r="C623" s="8"/>
       <c r="D623" s="8"/>
@@ -5224,7 +5224,7 @@
       <c r="Y623" s="15"/>
       <c r="Z623" s="15"/>
     </row>
-    <row r="624" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A624" s="8"/>
       <c r="C624" s="8"/>
       <c r="D624" s="8"/>
@@ -5251,7 +5251,7 @@
       <c r="Y624" s="15"/>
       <c r="Z624" s="15"/>
     </row>
-    <row r="625" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A625" s="8"/>
       <c r="C625" s="8"/>
       <c r="D625" s="8"/>
@@ -5278,7 +5278,7 @@
       <c r="Y625" s="15"/>
       <c r="Z625" s="15"/>
     </row>
-    <row r="626" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A626" s="8"/>
       <c r="C626" s="8"/>
       <c r="D626" s="8"/>
@@ -5305,7 +5305,7 @@
       <c r="Y626" s="15"/>
       <c r="Z626" s="15"/>
     </row>
-    <row r="627" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A627" s="8"/>
       <c r="C627" s="8"/>
       <c r="D627" s="8"/>
@@ -5332,7 +5332,7 @@
       <c r="Y627" s="15"/>
       <c r="Z627" s="15"/>
     </row>
-    <row r="628" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A628" s="8"/>
       <c r="C628" s="8"/>
       <c r="D628" s="8"/>
@@ -5359,7 +5359,7 @@
       <c r="Y628" s="15"/>
       <c r="Z628" s="15"/>
     </row>
-    <row r="629" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A629" s="8"/>
       <c r="C629" s="8"/>
       <c r="D629" s="8"/>
@@ -5386,7 +5386,7 @@
       <c r="Y629" s="15"/>
       <c r="Z629" s="15"/>
     </row>
-    <row r="630" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A630" s="8"/>
       <c r="C630" s="8"/>
       <c r="D630" s="8"/>
@@ -5413,7 +5413,7 @@
       <c r="Y630" s="15"/>
       <c r="Z630" s="15"/>
     </row>
-    <row r="631" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A631" s="8"/>
       <c r="C631" s="8"/>
       <c r="D631" s="8"/>
@@ -5440,7 +5440,7 @@
       <c r="Y631" s="15"/>
       <c r="Z631" s="15"/>
     </row>
-    <row r="632" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A632" s="8"/>
       <c r="C632" s="8"/>
       <c r="D632" s="8"/>
@@ -5467,7 +5467,7 @@
       <c r="Y632" s="15"/>
       <c r="Z632" s="15"/>
     </row>
-    <row r="633" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A633" s="8"/>
       <c r="C633" s="8"/>
       <c r="D633" s="8"/>
@@ -5494,7 +5494,7 @@
       <c r="Y633" s="15"/>
       <c r="Z633" s="15"/>
     </row>
-    <row r="634" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A634" s="8"/>
       <c r="C634" s="8"/>
       <c r="D634" s="8"/>
@@ -5521,7 +5521,7 @@
       <c r="Y634" s="15"/>
       <c r="Z634" s="15"/>
     </row>
-    <row r="635" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A635" s="8"/>
       <c r="C635" s="8"/>
       <c r="D635" s="8"/>
@@ -5548,7 +5548,7 @@
       <c r="Y635" s="15"/>
       <c r="Z635" s="15"/>
     </row>
-    <row r="636" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A636" s="8"/>
       <c r="C636" s="8"/>
       <c r="D636" s="8"/>
@@ -5575,7 +5575,7 @@
       <c r="Y636" s="15"/>
       <c r="Z636" s="15"/>
     </row>
-    <row r="637" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A637" s="8"/>
       <c r="C637" s="8"/>
       <c r="D637" s="8"/>
@@ -5602,7 +5602,7 @@
       <c r="Y637" s="15"/>
       <c r="Z637" s="15"/>
     </row>
-    <row r="638" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A638" s="8"/>
       <c r="C638" s="8"/>
       <c r="D638" s="8"/>
@@ -5629,7 +5629,7 @@
       <c r="Y638" s="15"/>
       <c r="Z638" s="15"/>
     </row>
-    <row r="639" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A639" s="8"/>
       <c r="C639" s="8"/>
       <c r="D639" s="8"/>
@@ -5656,7 +5656,7 @@
       <c r="Y639" s="15"/>
       <c r="Z639" s="15"/>
     </row>
-    <row r="640" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A640" s="8"/>
       <c r="C640" s="8"/>
       <c r="D640" s="8"/>
@@ -5683,7 +5683,7 @@
       <c r="Y640" s="15"/>
       <c r="Z640" s="15"/>
     </row>
-    <row r="641" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A641" s="8"/>
       <c r="C641" s="8"/>
       <c r="D641" s="8"/>
@@ -5710,7 +5710,7 @@
       <c r="Y641" s="15"/>
       <c r="Z641" s="15"/>
     </row>
-    <row r="642" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A642" s="8"/>
       <c r="C642" s="8"/>
       <c r="D642" s="8"/>
@@ -5737,7 +5737,7 @@
       <c r="Y642" s="15"/>
       <c r="Z642" s="15"/>
     </row>
-    <row r="643" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A643" s="8"/>
       <c r="C643" s="8"/>
       <c r="D643" s="8"/>
@@ -5764,7 +5764,7 @@
       <c r="Y643" s="15"/>
       <c r="Z643" s="15"/>
     </row>
-    <row r="644" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A644" s="8"/>
       <c r="C644" s="8"/>
       <c r="D644" s="8"/>
@@ -5791,7 +5791,7 @@
       <c r="Y644" s="15"/>
       <c r="Z644" s="15"/>
     </row>
-    <row r="645" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A645" s="8"/>
       <c r="C645" s="8"/>
       <c r="D645" s="8"/>
@@ -5818,7 +5818,7 @@
       <c r="Y645" s="15"/>
       <c r="Z645" s="15"/>
     </row>
-    <row r="646" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A646" s="8"/>
       <c r="C646" s="8"/>
       <c r="D646" s="8"/>
@@ -5845,7 +5845,7 @@
       <c r="Y646" s="15"/>
       <c r="Z646" s="15"/>
     </row>
-    <row r="647" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A647" s="8"/>
       <c r="C647" s="8"/>
       <c r="D647" s="8"/>
@@ -5872,7 +5872,7 @@
       <c r="Y647" s="15"/>
       <c r="Z647" s="15"/>
     </row>
-    <row r="648" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A648" s="8"/>
       <c r="C648" s="8"/>
       <c r="D648" s="8"/>
@@ -5899,7 +5899,7 @@
       <c r="Y648" s="15"/>
       <c r="Z648" s="15"/>
     </row>
-    <row r="649" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A649" s="8"/>
       <c r="C649" s="8"/>
       <c r="D649" s="8"/>
@@ -5926,7 +5926,7 @@
       <c r="Y649" s="15"/>
       <c r="Z649" s="15"/>
     </row>
-    <row r="650" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A650" s="8"/>
       <c r="C650" s="8"/>
       <c r="D650" s="8"/>
@@ -5953,7 +5953,7 @@
       <c r="Y650" s="15"/>
       <c r="Z650" s="15"/>
     </row>
-    <row r="651" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A651" s="8"/>
       <c r="C651" s="8"/>
       <c r="D651" s="8"/>
@@ -5980,7 +5980,7 @@
       <c r="Y651" s="15"/>
       <c r="Z651" s="15"/>
     </row>
-    <row r="652" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A652" s="8"/>
       <c r="C652" s="8"/>
       <c r="D652" s="8"/>
@@ -6007,7 +6007,7 @@
       <c r="Y652" s="15"/>
       <c r="Z652" s="15"/>
     </row>
-    <row r="653" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A653" s="8"/>
       <c r="C653" s="8"/>
       <c r="D653" s="8"/>
@@ -6034,7 +6034,7 @@
       <c r="Y653" s="15"/>
       <c r="Z653" s="15"/>
     </row>
-    <row r="654" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A654" s="8"/>
       <c r="C654" s="8"/>
       <c r="D654" s="8"/>
@@ -6061,7 +6061,7 @@
       <c r="Y654" s="15"/>
       <c r="Z654" s="15"/>
     </row>
-    <row r="655" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A655" s="8"/>
       <c r="C655" s="8"/>
       <c r="D655" s="8"/>
@@ -6088,7 +6088,7 @@
       <c r="Y655" s="15"/>
       <c r="Z655" s="15"/>
     </row>
-    <row r="656" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A656" s="8"/>
       <c r="C656" s="8"/>
       <c r="D656" s="8"/>
@@ -6115,7 +6115,7 @@
       <c r="Y656" s="15"/>
       <c r="Z656" s="15"/>
     </row>
-    <row r="657" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A657" s="8"/>
       <c r="C657" s="8"/>
       <c r="D657" s="8"/>
@@ -6142,7 +6142,7 @@
       <c r="Y657" s="15"/>
       <c r="Z657" s="15"/>
     </row>
-    <row r="658" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A658" s="8"/>
       <c r="C658" s="8"/>
       <c r="D658" s="8"/>
@@ -6169,7 +6169,7 @@
       <c r="Y658" s="15"/>
       <c r="Z658" s="15"/>
     </row>
-    <row r="659" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A659" s="8"/>
       <c r="C659" s="8"/>
       <c r="D659" s="8"/>
@@ -6196,7 +6196,7 @@
       <c r="Y659" s="15"/>
       <c r="Z659" s="15"/>
     </row>
-    <row r="660" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A660" s="8"/>
       <c r="C660" s="8"/>
       <c r="D660" s="8"/>
@@ -6223,7 +6223,7 @@
       <c r="Y660" s="15"/>
       <c r="Z660" s="15"/>
     </row>
-    <row r="661" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A661" s="8"/>
       <c r="C661" s="8"/>
       <c r="D661" s="8"/>
@@ -6250,7 +6250,7 @@
       <c r="Y661" s="15"/>
       <c r="Z661" s="15"/>
     </row>
-    <row r="662" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A662" s="8"/>
       <c r="C662" s="8"/>
       <c r="D662" s="8"/>
@@ -6277,7 +6277,7 @@
       <c r="Y662" s="15"/>
       <c r="Z662" s="15"/>
     </row>
-    <row r="663" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A663" s="8"/>
       <c r="C663" s="8"/>
       <c r="D663" s="8"/>
@@ -6304,7 +6304,7 @@
       <c r="Y663" s="15"/>
       <c r="Z663" s="15"/>
     </row>
-    <row r="664" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A664" s="8"/>
       <c r="C664" s="8"/>
       <c r="D664" s="8"/>
@@ -6331,7 +6331,7 @@
       <c r="Y664" s="15"/>
       <c r="Z664" s="15"/>
     </row>
-    <row r="665" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A665" s="8"/>
       <c r="C665" s="8"/>
       <c r="D665" s="8"/>
@@ -6358,7 +6358,7 @@
       <c r="Y665" s="15"/>
       <c r="Z665" s="15"/>
     </row>
-    <row r="666" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A666" s="8"/>
       <c r="C666" s="8"/>
       <c r="D666" s="8"/>
@@ -6385,7 +6385,7 @@
       <c r="Y666" s="15"/>
       <c r="Z666" s="15"/>
     </row>
-    <row r="667" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A667" s="8"/>
       <c r="C667" s="8"/>
       <c r="D667" s="8"/>
@@ -6412,7 +6412,7 @@
       <c r="Y667" s="15"/>
       <c r="Z667" s="15"/>
     </row>
-    <row r="668" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A668" s="8"/>
       <c r="C668" s="8"/>
       <c r="D668" s="8"/>
@@ -6439,7 +6439,7 @@
       <c r="Y668" s="15"/>
       <c r="Z668" s="15"/>
     </row>
-    <row r="669" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A669" s="8"/>
       <c r="C669" s="8"/>
       <c r="D669" s="8"/>
@@ -6466,7 +6466,7 @@
       <c r="Y669" s="15"/>
       <c r="Z669" s="15"/>
     </row>
-    <row r="670" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A670" s="8"/>
       <c r="C670" s="8"/>
       <c r="D670" s="8"/>
@@ -6493,7 +6493,7 @@
       <c r="Y670" s="15"/>
       <c r="Z670" s="15"/>
     </row>
-    <row r="671" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A671" s="8"/>
       <c r="C671" s="8"/>
       <c r="D671" s="8"/>
@@ -6520,7 +6520,7 @@
       <c r="Y671" s="15"/>
       <c r="Z671" s="15"/>
     </row>
-    <row r="672" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A672" s="8"/>
       <c r="C672" s="8"/>
       <c r="D672" s="8"/>
@@ -6547,7 +6547,7 @@
       <c r="Y672" s="15"/>
       <c r="Z672" s="15"/>
     </row>
-    <row r="673" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A673" s="8"/>
       <c r="C673" s="8"/>
       <c r="D673" s="8"/>
@@ -6574,7 +6574,7 @@
       <c r="Y673" s="15"/>
       <c r="Z673" s="15"/>
     </row>
-    <row r="674" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A674" s="8"/>
       <c r="C674" s="8"/>
       <c r="D674" s="8"/>
@@ -6601,7 +6601,7 @@
       <c r="Y674" s="15"/>
       <c r="Z674" s="15"/>
     </row>
-    <row r="675" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A675" s="8"/>
       <c r="C675" s="8"/>
       <c r="D675" s="8"/>
@@ -6628,7 +6628,7 @@
       <c r="Y675" s="15"/>
       <c r="Z675" s="15"/>
     </row>
-    <row r="676" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A676" s="8"/>
       <c r="C676" s="8"/>
       <c r="D676" s="8"/>
@@ -6655,7 +6655,7 @@
       <c r="Y676" s="15"/>
       <c r="Z676" s="15"/>
     </row>
-    <row r="677" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A677" s="8"/>
       <c r="C677" s="8"/>
       <c r="D677" s="8"/>
@@ -6682,7 +6682,7 @@
       <c r="Y677" s="15"/>
       <c r="Z677" s="15"/>
     </row>
-    <row r="678" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A678" s="8"/>
       <c r="C678" s="8"/>
       <c r="D678" s="8"/>
@@ -6709,7 +6709,7 @@
       <c r="Y678" s="15"/>
       <c r="Z678" s="15"/>
     </row>
-    <row r="679" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A679" s="8"/>
       <c r="C679" s="8"/>
       <c r="D679" s="8"/>
@@ -6736,7 +6736,7 @@
       <c r="Y679" s="15"/>
       <c r="Z679" s="15"/>
     </row>
-    <row r="680" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A680" s="8"/>
       <c r="C680" s="8"/>
       <c r="D680" s="8"/>
@@ -6763,7 +6763,7 @@
       <c r="Y680" s="15"/>
       <c r="Z680" s="15"/>
     </row>
-    <row r="681" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A681" s="8"/>
       <c r="C681" s="8"/>
       <c r="D681" s="8"/>
@@ -6790,7 +6790,7 @@
       <c r="Y681" s="15"/>
       <c r="Z681" s="15"/>
     </row>
-    <row r="682" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A682" s="8"/>
       <c r="C682" s="8"/>
       <c r="D682" s="8"/>
@@ -6817,7 +6817,7 @@
       <c r="Y682" s="15"/>
       <c r="Z682" s="15"/>
     </row>
-    <row r="683" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A683" s="8"/>
       <c r="C683" s="8"/>
       <c r="D683" s="8"/>
@@ -6844,7 +6844,7 @@
       <c r="Y683" s="15"/>
       <c r="Z683" s="15"/>
     </row>
-    <row r="684" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A684" s="8"/>
       <c r="C684" s="8"/>
       <c r="D684" s="8"/>
@@ -6871,7 +6871,7 @@
       <c r="Y684" s="15"/>
       <c r="Z684" s="15"/>
     </row>
-    <row r="685" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A685" s="8"/>
       <c r="C685" s="8"/>
       <c r="D685" s="8"/>
@@ -6898,7 +6898,7 @@
       <c r="Y685" s="15"/>
       <c r="Z685" s="15"/>
     </row>
-    <row r="686" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A686" s="8"/>
       <c r="C686" s="8"/>
       <c r="D686" s="8"/>
@@ -6925,7 +6925,7 @@
       <c r="Y686" s="15"/>
       <c r="Z686" s="15"/>
     </row>
-    <row r="687" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A687" s="8"/>
       <c r="C687" s="8"/>
       <c r="D687" s="8"/>
@@ -6952,7 +6952,7 @@
       <c r="Y687" s="15"/>
       <c r="Z687" s="15"/>
     </row>
-    <row r="688" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A688" s="8"/>
       <c r="C688" s="8"/>
       <c r="D688" s="8"/>
@@ -6979,7 +6979,7 @@
       <c r="Y688" s="15"/>
       <c r="Z688" s="15"/>
     </row>
-    <row r="689" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A689" s="8"/>
       <c r="C689" s="8"/>
       <c r="D689" s="8"/>
@@ -7006,7 +7006,7 @@
       <c r="Y689" s="15"/>
       <c r="Z689" s="15"/>
     </row>
-    <row r="690" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A690" s="8"/>
       <c r="C690" s="8"/>
       <c r="D690" s="8"/>
@@ -7033,7 +7033,7 @@
       <c r="Y690" s="15"/>
       <c r="Z690" s="15"/>
     </row>
-    <row r="691" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A691" s="8"/>
       <c r="C691" s="8"/>
       <c r="D691" s="8"/>
@@ -7060,7 +7060,7 @@
       <c r="Y691" s="15"/>
       <c r="Z691" s="15"/>
     </row>
-    <row r="692" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A692" s="8"/>
       <c r="C692" s="8"/>
       <c r="D692" s="8"/>
@@ -7087,7 +7087,7 @@
       <c r="Y692" s="15"/>
       <c r="Z692" s="15"/>
     </row>
-    <row r="693" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A693" s="8"/>
       <c r="C693" s="8"/>
       <c r="D693" s="8"/>
@@ -7114,7 +7114,7 @@
       <c r="Y693" s="15"/>
       <c r="Z693" s="15"/>
     </row>
-    <row r="694" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A694" s="8"/>
       <c r="C694" s="8"/>
       <c r="D694" s="8"/>
@@ -7141,7 +7141,7 @@
       <c r="Y694" s="15"/>
       <c r="Z694" s="15"/>
     </row>
-    <row r="695" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A695" s="8"/>
       <c r="C695" s="8"/>
       <c r="D695" s="8"/>
@@ -7168,7 +7168,7 @@
       <c r="Y695" s="15"/>
       <c r="Z695" s="15"/>
     </row>
-    <row r="696" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A696" s="8"/>
       <c r="C696" s="8"/>
       <c r="D696" s="8"/>
@@ -7195,7 +7195,7 @@
       <c r="Y696" s="15"/>
       <c r="Z696" s="15"/>
     </row>
-    <row r="697" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A697" s="8"/>
       <c r="C697" s="8"/>
       <c r="D697" s="8"/>
@@ -7222,7 +7222,7 @@
       <c r="Y697" s="15"/>
       <c r="Z697" s="15"/>
     </row>
-    <row r="698" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A698" s="8"/>
       <c r="C698" s="8"/>
       <c r="D698" s="8"/>
@@ -7249,7 +7249,7 @@
       <c r="Y698" s="15"/>
       <c r="Z698" s="15"/>
     </row>
-    <row r="699" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A699" s="8"/>
       <c r="C699" s="8"/>
       <c r="D699" s="8"/>
@@ -7276,7 +7276,7 @@
       <c r="Y699" s="15"/>
       <c r="Z699" s="15"/>
     </row>
-    <row r="700" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A700" s="8"/>
       <c r="C700" s="8"/>
       <c r="D700" s="8"/>
@@ -7303,7 +7303,7 @@
       <c r="Y700" s="15"/>
       <c r="Z700" s="15"/>
     </row>
-    <row r="701" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A701" s="8"/>
       <c r="C701" s="8"/>
       <c r="D701" s="8"/>
@@ -7330,7 +7330,7 @@
       <c r="Y701" s="15"/>
       <c r="Z701" s="15"/>
     </row>
-    <row r="702" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A702" s="8"/>
       <c r="C702" s="8"/>
       <c r="D702" s="8"/>
@@ -7357,7 +7357,7 @@
       <c r="Y702" s="15"/>
       <c r="Z702" s="15"/>
     </row>
-    <row r="703" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A703" s="8"/>
       <c r="C703" s="8"/>
       <c r="D703" s="8"/>
@@ -7384,7 +7384,7 @@
       <c r="Y703" s="15"/>
       <c r="Z703" s="15"/>
     </row>
-    <row r="704" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A704" s="8"/>
       <c r="C704" s="8"/>
       <c r="D704" s="8"/>
@@ -7411,7 +7411,7 @@
       <c r="Y704" s="15"/>
       <c r="Z704" s="15"/>
     </row>
-    <row r="705" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A705" s="8"/>
       <c r="C705" s="8"/>
       <c r="D705" s="8"/>
@@ -7438,7 +7438,7 @@
       <c r="Y705" s="15"/>
       <c r="Z705" s="15"/>
     </row>
-    <row r="706" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A706" s="8"/>
       <c r="C706" s="8"/>
       <c r="D706" s="8"/>
@@ -7465,7 +7465,7 @@
       <c r="Y706" s="15"/>
       <c r="Z706" s="15"/>
     </row>
-    <row r="707" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A707" s="8"/>
       <c r="C707" s="8"/>
       <c r="D707" s="8"/>
@@ -7492,7 +7492,7 @@
       <c r="Y707" s="15"/>
       <c r="Z707" s="15"/>
     </row>
-    <row r="708" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A708" s="8"/>
       <c r="C708" s="8"/>
       <c r="D708" s="8"/>
@@ -7519,7 +7519,7 @@
       <c r="Y708" s="15"/>
       <c r="Z708" s="15"/>
     </row>
-    <row r="709" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A709" s="8"/>
       <c r="C709" s="8"/>
       <c r="D709" s="8"/>
@@ -7546,7 +7546,7 @@
       <c r="Y709" s="15"/>
       <c r="Z709" s="15"/>
     </row>
-    <row r="710" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A710" s="8"/>
       <c r="C710" s="8"/>
       <c r="D710" s="8"/>
@@ -7573,7 +7573,7 @@
       <c r="Y710" s="15"/>
       <c r="Z710" s="15"/>
     </row>
-    <row r="711" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A711" s="8"/>
       <c r="C711" s="8"/>
       <c r="D711" s="8"/>
@@ -7600,7 +7600,7 @@
       <c r="Y711" s="15"/>
       <c r="Z711" s="15"/>
     </row>
-    <row r="712" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A712" s="8"/>
       <c r="C712" s="8"/>
       <c r="D712" s="8"/>
@@ -7627,7 +7627,7 @@
       <c r="Y712" s="15"/>
       <c r="Z712" s="15"/>
     </row>
-    <row r="713" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A713" s="8"/>
       <c r="C713" s="8"/>
       <c r="D713" s="8"/>
@@ -7654,7 +7654,7 @@
       <c r="Y713" s="15"/>
       <c r="Z713" s="15"/>
     </row>
-    <row r="714" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A714" s="8"/>
       <c r="C714" s="8"/>
       <c r="D714" s="8"/>
@@ -7681,7 +7681,7 @@
       <c r="Y714" s="15"/>
       <c r="Z714" s="15"/>
     </row>
-    <row r="715" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A715" s="8"/>
       <c r="C715" s="8"/>
       <c r="D715" s="8"/>
@@ -7708,7 +7708,7 @@
       <c r="Y715" s="15"/>
       <c r="Z715" s="15"/>
     </row>
-    <row r="716" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A716" s="8"/>
       <c r="C716" s="8"/>
       <c r="D716" s="8"/>
@@ -7735,7 +7735,7 @@
       <c r="Y716" s="15"/>
       <c r="Z716" s="15"/>
     </row>
-    <row r="717" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A717" s="8"/>
       <c r="C717" s="8"/>
       <c r="D717" s="8"/>
@@ -7762,7 +7762,7 @@
       <c r="Y717" s="15"/>
       <c r="Z717" s="15"/>
     </row>
-    <row r="718" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A718" s="8"/>
       <c r="C718" s="8"/>
       <c r="D718" s="8"/>
@@ -7789,7 +7789,7 @@
       <c r="Y718" s="15"/>
       <c r="Z718" s="15"/>
     </row>
-    <row r="719" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A719" s="8"/>
       <c r="C719" s="8"/>
       <c r="D719" s="8"/>
@@ -7816,7 +7816,7 @@
       <c r="Y719" s="15"/>
       <c r="Z719" s="15"/>
     </row>
-    <row r="720" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A720" s="8"/>
       <c r="C720" s="8"/>
       <c r="D720" s="8"/>
@@ -7843,7 +7843,7 @@
       <c r="Y720" s="15"/>
       <c r="Z720" s="15"/>
     </row>
-    <row r="721" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A721" s="8"/>
       <c r="C721" s="8"/>
       <c r="D721" s="8"/>
@@ -7870,7 +7870,7 @@
       <c r="Y721" s="15"/>
       <c r="Z721" s="15"/>
     </row>
-    <row r="722" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A722" s="8"/>
       <c r="C722" s="8"/>
       <c r="D722" s="8"/>
@@ -7897,7 +7897,7 @@
       <c r="Y722" s="15"/>
       <c r="Z722" s="15"/>
     </row>
-    <row r="723" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A723" s="8"/>
       <c r="C723" s="8"/>
       <c r="D723" s="8"/>
@@ -7924,7 +7924,7 @@
       <c r="Y723" s="15"/>
       <c r="Z723" s="15"/>
     </row>
-    <row r="724" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A724" s="8"/>
       <c r="C724" s="8"/>
       <c r="D724" s="8"/>
@@ -7951,7 +7951,7 @@
       <c r="Y724" s="15"/>
       <c r="Z724" s="15"/>
     </row>
-    <row r="725" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A725" s="8"/>
       <c r="C725" s="8"/>
       <c r="D725" s="8"/>
@@ -7978,7 +7978,7 @@
       <c r="Y725" s="15"/>
       <c r="Z725" s="15"/>
     </row>
-    <row r="726" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A726" s="8"/>
       <c r="C726" s="8"/>
       <c r="D726" s="8"/>
@@ -8005,7 +8005,7 @@
       <c r="Y726" s="15"/>
       <c r="Z726" s="15"/>
     </row>
-    <row r="727" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A727" s="8"/>
       <c r="C727" s="8"/>
       <c r="D727" s="8"/>
@@ -8032,7 +8032,7 @@
       <c r="Y727" s="15"/>
       <c r="Z727" s="15"/>
     </row>
-    <row r="728" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A728" s="8"/>
       <c r="C728" s="8"/>
       <c r="D728" s="8"/>
@@ -8059,7 +8059,7 @@
       <c r="Y728" s="15"/>
       <c r="Z728" s="15"/>
     </row>
-    <row r="729" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A729" s="8"/>
       <c r="C729" s="8"/>
       <c r="D729" s="8"/>
@@ -8086,7 +8086,7 @@
       <c r="Y729" s="15"/>
       <c r="Z729" s="15"/>
     </row>
-    <row r="730" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A730" s="8"/>
       <c r="C730" s="8"/>
       <c r="D730" s="8"/>
@@ -8113,7 +8113,7 @@
       <c r="Y730" s="15"/>
       <c r="Z730" s="15"/>
     </row>
-    <row r="731" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A731" s="8"/>
       <c r="C731" s="8"/>
       <c r="D731" s="8"/>
@@ -8140,7 +8140,7 @@
       <c r="Y731" s="15"/>
       <c r="Z731" s="15"/>
     </row>
-    <row r="732" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A732" s="8"/>
       <c r="C732" s="8"/>
       <c r="D732" s="8"/>
@@ -8167,7 +8167,7 @@
       <c r="Y732" s="15"/>
       <c r="Z732" s="15"/>
     </row>
-    <row r="733" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A733" s="8"/>
       <c r="C733" s="8"/>
       <c r="D733" s="8"/>
@@ -8194,7 +8194,7 @@
       <c r="Y733" s="15"/>
       <c r="Z733" s="15"/>
     </row>
-    <row r="734" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A734" s="8"/>
       <c r="C734" s="8"/>
       <c r="D734" s="8"/>
@@ -8221,7 +8221,7 @@
       <c r="Y734" s="15"/>
       <c r="Z734" s="15"/>
     </row>
-    <row r="735" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A735" s="8"/>
       <c r="C735" s="8"/>
       <c r="D735" s="8"/>
@@ -8248,7 +8248,7 @@
       <c r="Y735" s="15"/>
       <c r="Z735" s="15"/>
     </row>
-    <row r="736" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A736" s="8"/>
       <c r="C736" s="8"/>
       <c r="D736" s="8"/>
@@ -8275,7 +8275,7 @@
       <c r="Y736" s="15"/>
       <c r="Z736" s="15"/>
     </row>
-    <row r="737" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A737" s="8"/>
       <c r="C737" s="8"/>
       <c r="D737" s="8"/>
@@ -8302,7 +8302,7 @@
       <c r="Y737" s="15"/>
       <c r="Z737" s="15"/>
     </row>
-    <row r="738" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A738" s="8"/>
       <c r="C738" s="8"/>
       <c r="D738" s="8"/>
@@ -8329,7 +8329,7 @@
       <c r="Y738" s="15"/>
       <c r="Z738" s="15"/>
     </row>
-    <row r="739" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A739" s="8"/>
       <c r="C739" s="8"/>
       <c r="D739" s="8"/>
@@ -8356,7 +8356,7 @@
       <c r="Y739" s="15"/>
       <c r="Z739" s="15"/>
     </row>
-    <row r="740" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A740" s="8"/>
       <c r="C740" s="8"/>
       <c r="D740" s="8"/>
@@ -8383,7 +8383,7 @@
       <c r="Y740" s="15"/>
       <c r="Z740" s="15"/>
     </row>
-    <row r="741" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A741" s="8"/>
       <c r="C741" s="8"/>
       <c r="D741" s="8"/>
@@ -8410,7 +8410,7 @@
       <c r="Y741" s="15"/>
       <c r="Z741" s="15"/>
     </row>
-    <row r="742" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A742" s="8"/>
       <c r="C742" s="8"/>
       <c r="D742" s="8"/>
@@ -8437,7 +8437,7 @@
       <c r="Y742" s="15"/>
       <c r="Z742" s="15"/>
     </row>
-    <row r="743" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A743" s="8"/>
       <c r="C743" s="8"/>
       <c r="D743" s="8"/>
@@ -8464,7 +8464,7 @@
       <c r="Y743" s="15"/>
       <c r="Z743" s="15"/>
     </row>
-    <row r="744" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A744" s="8"/>
       <c r="C744" s="8"/>
       <c r="D744" s="8"/>
@@ -8491,7 +8491,7 @@
       <c r="Y744" s="15"/>
       <c r="Z744" s="15"/>
     </row>
-    <row r="745" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A745" s="8"/>
       <c r="C745" s="8"/>
       <c r="D745" s="8"/>
@@ -8518,7 +8518,7 @@
       <c r="Y745" s="15"/>
       <c r="Z745" s="15"/>
     </row>
-    <row r="746" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A746" s="8"/>
       <c r="C746" s="8"/>
       <c r="D746" s="8"/>
@@ -8545,7 +8545,7 @@
       <c r="Y746" s="15"/>
       <c r="Z746" s="15"/>
     </row>
-    <row r="747" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A747" s="8"/>
       <c r="C747" s="8"/>
       <c r="D747" s="8"/>
@@ -8572,7 +8572,7 @@
       <c r="Y747" s="15"/>
       <c r="Z747" s="15"/>
     </row>
-    <row r="748" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A748" s="8"/>
       <c r="C748" s="8"/>
       <c r="D748" s="8"/>
@@ -8599,7 +8599,7 @@
       <c r="Y748" s="15"/>
       <c r="Z748" s="15"/>
     </row>
-    <row r="749" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A749" s="8"/>
       <c r="C749" s="8"/>
       <c r="D749" s="8"/>
@@ -8626,7 +8626,7 @@
       <c r="Y749" s="15"/>
       <c r="Z749" s="15"/>
     </row>
-    <row r="750" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A750" s="8"/>
       <c r="C750" s="8"/>
       <c r="D750" s="8"/>
@@ -8653,7 +8653,7 @@
       <c r="Y750" s="15"/>
       <c r="Z750" s="15"/>
     </row>
-    <row r="751" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A751" s="8"/>
       <c r="C751" s="8"/>
       <c r="D751" s="8"/>
@@ -8680,7 +8680,7 @@
       <c r="Y751" s="15"/>
       <c r="Z751" s="15"/>
     </row>
-    <row r="752" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A752" s="8"/>
       <c r="C752" s="8"/>
       <c r="D752" s="8"/>
@@ -8707,7 +8707,7 @@
       <c r="Y752" s="15"/>
       <c r="Z752" s="15"/>
     </row>
-    <row r="753" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A753" s="8"/>
       <c r="C753" s="8"/>
       <c r="D753" s="8"/>
@@ -8734,7 +8734,7 @@
       <c r="Y753" s="15"/>
       <c r="Z753" s="15"/>
     </row>
-    <row r="754" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A754" s="8"/>
       <c r="C754" s="8"/>
       <c r="D754" s="8"/>
@@ -8761,7 +8761,7 @@
       <c r="Y754" s="15"/>
       <c r="Z754" s="15"/>
     </row>
-    <row r="755" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A755" s="8"/>
       <c r="C755" s="8"/>
       <c r="D755" s="8"/>
@@ -8788,7 +8788,7 @@
       <c r="Y755" s="15"/>
       <c r="Z755" s="15"/>
     </row>
-    <row r="756" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A756" s="8"/>
       <c r="C756" s="8"/>
       <c r="D756" s="8"/>
@@ -8815,7 +8815,7 @@
       <c r="Y756" s="15"/>
       <c r="Z756" s="15"/>
     </row>
-    <row r="757" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A757" s="8"/>
       <c r="C757" s="8"/>
       <c r="D757" s="8"/>
@@ -8842,7 +8842,7 @@
       <c r="Y757" s="15"/>
       <c r="Z757" s="15"/>
     </row>
-    <row r="758" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A758" s="8"/>
       <c r="C758" s="8"/>
       <c r="D758" s="8"/>
@@ -8869,7 +8869,7 @@
       <c r="Y758" s="15"/>
       <c r="Z758" s="15"/>
     </row>
-    <row r="759" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A759" s="8"/>
       <c r="C759" s="8"/>
       <c r="D759" s="8"/>
@@ -8896,7 +8896,7 @@
       <c r="Y759" s="15"/>
       <c r="Z759" s="15"/>
     </row>
-    <row r="760" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A760" s="8"/>
       <c r="C760" s="8"/>
       <c r="D760" s="8"/>
@@ -8923,7 +8923,7 @@
       <c r="Y760" s="15"/>
       <c r="Z760" s="15"/>
     </row>
-    <row r="761" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A761" s="8"/>
       <c r="C761" s="8"/>
       <c r="D761" s="8"/>
@@ -8950,7 +8950,7 @@
       <c r="Y761" s="15"/>
       <c r="Z761" s="15"/>
     </row>
-    <row r="762" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A762" s="8"/>
       <c r="C762" s="8"/>
       <c r="D762" s="8"/>
@@ -8977,7 +8977,7 @@
       <c r="Y762" s="15"/>
       <c r="Z762" s="15"/>
     </row>
-    <row r="763" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A763" s="8"/>
       <c r="C763" s="8"/>
       <c r="D763" s="8"/>
@@ -9004,7 +9004,7 @@
       <c r="Y763" s="15"/>
       <c r="Z763" s="15"/>
     </row>
-    <row r="764" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A764" s="8"/>
       <c r="C764" s="8"/>
       <c r="D764" s="8"/>
@@ -9031,7 +9031,7 @@
       <c r="Y764" s="15"/>
       <c r="Z764" s="15"/>
     </row>
-    <row r="765" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A765" s="8"/>
       <c r="C765" s="8"/>
       <c r="D765" s="8"/>
@@ -9058,7 +9058,7 @@
       <c r="Y765" s="15"/>
       <c r="Z765" s="15"/>
     </row>
-    <row r="766" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A766" s="8"/>
       <c r="C766" s="8"/>
       <c r="D766" s="8"/>
@@ -9085,7 +9085,7 @@
       <c r="Y766" s="15"/>
       <c r="Z766" s="15"/>
     </row>
-    <row r="767" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A767" s="8"/>
       <c r="C767" s="8"/>
       <c r="D767" s="8"/>
@@ -9112,7 +9112,7 @@
       <c r="Y767" s="15"/>
       <c r="Z767" s="15"/>
     </row>
-    <row r="768" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A768" s="8"/>
       <c r="C768" s="8"/>
       <c r="D768" s="8"/>
@@ -9139,7 +9139,7 @@
       <c r="Y768" s="15"/>
       <c r="Z768" s="15"/>
     </row>
-    <row r="769" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A769" s="8"/>
       <c r="C769" s="8"/>
       <c r="D769" s="8"/>
@@ -9166,7 +9166,7 @@
       <c r="Y769" s="15"/>
       <c r="Z769" s="15"/>
     </row>
-    <row r="770" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A770" s="8"/>
       <c r="C770" s="8"/>
       <c r="D770" s="8"/>
@@ -9193,7 +9193,7 @@
       <c r="Y770" s="15"/>
       <c r="Z770" s="15"/>
     </row>
-    <row r="771" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A771" s="8"/>
       <c r="C771" s="8"/>
       <c r="D771" s="8"/>
@@ -9220,7 +9220,7 @@
       <c r="Y771" s="15"/>
       <c r="Z771" s="15"/>
     </row>
-    <row r="772" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A772" s="8"/>
       <c r="C772" s="8"/>
       <c r="D772" s="8"/>
@@ -9247,7 +9247,7 @@
       <c r="Y772" s="15"/>
       <c r="Z772" s="15"/>
     </row>
-    <row r="773" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A773" s="8"/>
       <c r="C773" s="8"/>
       <c r="D773" s="8"/>
@@ -9274,7 +9274,7 @@
       <c r="Y773" s="15"/>
       <c r="Z773" s="15"/>
     </row>
-    <row r="774" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A774" s="8"/>
       <c r="C774" s="8"/>
       <c r="D774" s="8"/>
@@ -9301,7 +9301,7 @@
       <c r="Y774" s="15"/>
       <c r="Z774" s="15"/>
     </row>
-    <row r="775" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A775" s="8"/>
       <c r="C775" s="8"/>
       <c r="D775" s="8"/>
@@ -9328,7 +9328,7 @@
       <c r="Y775" s="15"/>
       <c r="Z775" s="15"/>
     </row>
-    <row r="776" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A776" s="8"/>
       <c r="C776" s="8"/>
       <c r="D776" s="8"/>
@@ -9368,28 +9368,28 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" style="8"/>
-    <col min="2" max="2" width="11.59765625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="8"/>
+    <col min="2" max="2" width="11.6640625" style="8" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="8" customWidth="1"/>
     <col min="4" max="4" width="21" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="8" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
     <col min="7" max="7" width="13" style="8" customWidth="1"/>
-    <col min="8" max="8" width="13.09765625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="13.59765625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="8" customWidth="1"/>
     <col min="10" max="10" width="14" style="8" customWidth="1"/>
-    <col min="11" max="11" width="16.296875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="11.19921875" style="8" customWidth="1"/>
-    <col min="13" max="21" width="11.19921875" style="8"/>
+    <col min="11" max="11" width="16.33203125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" style="8" customWidth="1"/>
+    <col min="13" max="21" width="11.1640625" style="8"/>
     <col min="22" max="22" width="14" style="8" customWidth="1"/>
-    <col min="23" max="27" width="11.19921875" style="8"/>
+    <col min="23" max="27" width="11.1640625" style="8"/>
     <col min="28" max="28" width="18" style="8" customWidth="1"/>
-    <col min="29" max="16384" width="11.19921875" style="8"/>
+    <col min="29" max="16384" width="11.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="6" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" s="6" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>14</v>
@@ -9454,7 +9454,7 @@
         <v>19</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W1" s="5" t="s">
         <v>20</v>
@@ -9472,7 +9472,7 @@
         <v>24</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AC1" s="5" t="s">
         <v>25</v>
@@ -9499,24 +9499,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23">
         <v>39</v>
       </c>
       <c r="B2" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="D2" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="E2" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="23" t="s">
         <v>79</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>80</v>
       </c>
       <c r="G2" s="23">
         <v>14.02406962774589</v>
@@ -9561,10 +9561,10 @@
         <v>2.7455495887598609</v>
       </c>
       <c r="U2" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="V2" s="23" t="s">
         <v>81</v>
-      </c>
-      <c r="V2" s="23" t="s">
-        <v>82</v>
       </c>
       <c r="W2" s="23">
         <v>65.815859622133786</v>
@@ -9606,10 +9606,10 @@
         <v>155.28768519831229</v>
       </c>
       <c r="AJ2" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -9647,7 +9647,7 @@
       <c r="AI3" s="9"/>
       <c r="AJ3" s="9"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -9696,47 +9696,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EADA80-F733-7C46-88DE-5FC378E0728E}">
   <dimension ref="A1:AI4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.69921875" customWidth="1"/>
-    <col min="2" max="2" width="16.8984375" customWidth="1"/>
-    <col min="3" max="3" width="15.296875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="23">
         <v>39</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="23">
         <v>222.43077994188189</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>

--- a/HeadersTemplate.xlsx
+++ b/HeadersTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chavezmunoz.a/Documents/Classes/CapstoneC2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07DD377-DC71-0448-AC73-88B8D6A1EECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C59AE50-81B5-EA40-815C-8C5FFB282BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{E9678E3D-6B13-0047-9198-B64F92A85DB1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{E9678E3D-6B13-0047-9198-B64F92A85DB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="94">
   <si>
     <t>Record ID</t>
   </si>
@@ -297,6 +297,30 @@
   <si>
     <t>Hx of DVT</t>
   </si>
+  <si>
+    <t>Past, quit &gt;10 year ago</t>
+  </si>
+  <si>
+    <t>quit 1 to 10 years ago</t>
+  </si>
+  <si>
+    <t>current within the last year ( &gt; or = 1 pack a day)</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>GFR 30 to 59</t>
+  </si>
+  <si>
+    <t>GFR 15 to 29</t>
+  </si>
+  <si>
+    <t>GFR&lt;15 or patient is on dialysis</t>
+  </si>
+  <si>
+    <t>Test-patient</t>
+  </si>
 </sst>
 </file>
 
@@ -361,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -407,9 +431,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -741,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277E53FF-9C48-0E42-92C4-C58471F33D22}">
   <dimension ref="A1:AD776"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -851,95 +872,95 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23">
-        <v>39</v>
-      </c>
-      <c r="B2" s="23">
+    <row r="2" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="22">
         <v>81</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="22">
         <v>1</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="22">
         <v>40.373643141678478</v>
       </c>
-      <c r="H2" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="23">
+      <c r="H2" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="22">
         <v>1</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="22">
         <v>0</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="22">
         <v>1</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="22">
         <v>0</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="23">
+      <c r="O2" s="22">
         <v>0</v>
       </c>
-      <c r="P2" s="23">
+      <c r="P2" s="22">
         <v>2</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="R2" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="T2" s="23" t="s">
+      <c r="T2" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="23" t="s">
+      <c r="U2" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="W2" s="23">
+      <c r="W2" s="22">
         <v>22.033539937572471</v>
       </c>
-      <c r="X2" s="23" t="s">
+      <c r="X2" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="Y2" s="23">
+      <c r="Y2" s="22">
         <v>0</v>
       </c>
-      <c r="Z2" s="23">
+      <c r="Z2" s="22">
         <v>4.717162412719035</v>
       </c>
-      <c r="AA2" s="23">
+      <c r="AA2" s="22">
         <v>0.85901113713522692</v>
       </c>
-      <c r="AB2" s="23">
+      <c r="AB2" s="22">
         <v>0.1045217948752121</v>
       </c>
-      <c r="AC2" s="23" t="s">
+      <c r="AC2" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="AD2" s="23" t="s">
+      <c r="AD2" s="22" t="s">
         <v>74</v>
       </c>
     </row>
@@ -951,11 +972,15 @@
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="18"/>
+      <c r="H3" s="23" t="s">
+        <v>87</v>
+      </c>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
+      <c r="L3" s="22" t="s">
+        <v>89</v>
+      </c>
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -976,457 +1001,476 @@
       <c r="AD3" s="16"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="H4" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="H5" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="L6" s="22" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="L7" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="E13" s="20"/>
-      <c r="F13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="E14" s="21"/>
-      <c r="F14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="19"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E24" s="13"/>
-      <c r="F24" s="19"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E25" s="20"/>
-      <c r="F25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E32" s="20"/>
-      <c r="F32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E33" s="20"/>
-      <c r="F33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
     </row>
     <row r="51" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
     </row>
     <row r="53" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
     </row>
     <row r="54" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E54" s="20"/>
-      <c r="F54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="18"/>
     </row>
     <row r="55" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
     </row>
     <row r="56" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
     </row>
     <row r="57" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
     </row>
     <row r="58" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
     </row>
     <row r="59" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
     </row>
     <row r="60" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
     </row>
     <row r="61" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
     </row>
     <row r="62" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
     </row>
     <row r="63" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
     </row>
     <row r="64" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
     </row>
     <row r="65" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
     </row>
     <row r="66" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
     </row>
     <row r="67" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
     </row>
     <row r="68" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
     </row>
     <row r="69" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
     </row>
     <row r="70" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
     </row>
     <row r="71" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
     </row>
     <row r="72" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
     </row>
     <row r="73" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
     </row>
     <row r="74" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
     </row>
     <row r="75" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
     </row>
     <row r="76" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
     </row>
     <row r="77" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
     </row>
     <row r="78" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
     </row>
     <row r="79" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
     </row>
     <row r="80" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
     </row>
     <row r="81" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
     </row>
     <row r="82" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
     </row>
     <row r="83" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
     </row>
     <row r="84" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
     </row>
     <row r="85" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
     </row>
     <row r="86" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
     </row>
     <row r="87" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
     </row>
     <row r="88" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E88" s="20"/>
-      <c r="F88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="18"/>
     </row>
     <row r="89" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
     </row>
     <row r="90" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
     </row>
     <row r="91" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
     </row>
     <row r="92" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F92" s="19"/>
+      <c r="F92" s="18"/>
     </row>
     <row r="93" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
     </row>
     <row r="94" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
     </row>
     <row r="95" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
     </row>
     <row r="96" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
     </row>
     <row r="97" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
     </row>
     <row r="98" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
     </row>
     <row r="99" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
     </row>
     <row r="100" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E100" s="20"/>
-      <c r="F100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="18"/>
     </row>
     <row r="101" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
     </row>
     <row r="102" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F102" s="19"/>
+      <c r="F102" s="18"/>
     </row>
     <row r="103" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
     </row>
     <row r="104" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E104" s="19"/>
-      <c r="F104" s="19"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
     </row>
     <row r="105" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
     </row>
     <row r="106" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E106" s="19"/>
-      <c r="F106" s="19"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
     </row>
     <row r="107" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
     </row>
     <row r="108" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
     </row>
     <row r="109" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
     </row>
     <row r="110" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
     </row>
     <row r="111" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E111" s="20"/>
-      <c r="F111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="18"/>
     </row>
     <row r="112" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E112" s="20"/>
-      <c r="F112" s="19"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="18"/>
     </row>
     <row r="113" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
     </row>
     <row r="114" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
     </row>
     <row r="115" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E115" s="19"/>
-      <c r="F115" s="19"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
     </row>
     <row r="116" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E116" s="19"/>
-      <c r="F116" s="19"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="18"/>
     </row>
     <row r="117" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E117" s="19"/>
-      <c r="F117" s="19"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="18"/>
     </row>
     <row r="118" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E118" s="8"/>
@@ -9365,7 +9409,7 @@
   <dimension ref="A1:AK4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9499,113 +9543,113 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23">
-        <v>39</v>
-      </c>
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="1:37" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="22">
         <v>14.02406962774589</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="22">
         <v>1.2684905318657831</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="22">
         <v>63.780276106831927</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="22">
         <v>37.480709803436852</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="22">
         <v>60.55107772407554</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="22">
         <v>4.0055238592683677</v>
       </c>
-      <c r="M2" s="23">
+      <c r="M2" s="22">
         <v>33.115271204959747</v>
       </c>
-      <c r="N2" s="23">
+      <c r="N2" s="22">
         <v>66.890611426782669</v>
       </c>
-      <c r="O2" s="23">
+      <c r="O2" s="22">
         <v>7.1010214569379944</v>
       </c>
-      <c r="P2" s="23">
+      <c r="P2" s="22">
         <v>24.874173150320001</v>
       </c>
-      <c r="Q2" s="23">
+      <c r="Q2" s="22">
         <v>76.613606588820218</v>
       </c>
-      <c r="R2" s="23">
+      <c r="R2" s="22">
         <v>245.8888902316412</v>
       </c>
-      <c r="S2" s="23">
+      <c r="S2" s="22">
         <v>530.96445435023361</v>
       </c>
-      <c r="T2" s="23">
+      <c r="T2" s="22">
         <v>2.7455495887598609</v>
       </c>
-      <c r="U2" s="23" t="s">
+      <c r="U2" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="W2" s="23">
+      <c r="W2" s="22">
         <v>65.815859622133786</v>
       </c>
-      <c r="X2" s="23">
+      <c r="X2" s="22">
         <v>31.275553891015001</v>
       </c>
-      <c r="Y2" s="23">
+      <c r="Y2" s="22">
         <v>8.0702396893768036</v>
       </c>
-      <c r="Z2" s="23">
+      <c r="Z2" s="22">
         <v>1150.210715528955</v>
       </c>
-      <c r="AA2" s="23">
+      <c r="AA2" s="22">
         <v>5.7647433594769488</v>
       </c>
-      <c r="AB2" s="23">
+      <c r="AB2" s="22">
         <v>151.7572155826733</v>
       </c>
-      <c r="AC2" s="23">
+      <c r="AC2" s="22">
         <v>121.45118153373861</v>
       </c>
-      <c r="AD2" s="23">
+      <c r="AD2" s="22">
         <v>6.7237819640287819</v>
       </c>
-      <c r="AE2" s="23">
+      <c r="AE2" s="22">
         <v>12.394838091159791</v>
       </c>
-      <c r="AF2" s="23">
+      <c r="AF2" s="22">
         <v>4.3346936143657908</v>
       </c>
-      <c r="AG2" s="23">
+      <c r="AG2" s="22">
         <v>10.318402599541249</v>
       </c>
-      <c r="AH2" s="23">
+      <c r="AH2" s="22">
         <v>47.959012166413132</v>
       </c>
-      <c r="AI2" s="23">
+      <c r="AI2" s="22">
         <v>155.28768519831229</v>
       </c>
-      <c r="AJ2" s="23" t="s">
+      <c r="AJ2" s="22" t="s">
         <v>82</v>
       </c>
     </row>
@@ -9696,8 +9740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EADA80-F733-7C46-88DE-5FC378E0728E}">
   <dimension ref="A1:AI4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9715,7 +9759,7 @@
       <c r="B1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -9723,16 +9767,16 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A2" s="23">
-        <v>39</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="22">
         <v>222.43077994188189</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>84</v>
       </c>
     </row>
